--- a/OverAllTatReport.xlsx
+++ b/OverAllTatReport.xlsx
@@ -141,71 +141,104 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="AggReportTable" displayName="AggReportTable" ref="A1:D12" headerRowCount="1">
-  <autoFilter ref="A1:D12"/>
-  <tableColumns count="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="AggReportTable" displayName="AggReportTable" ref="A1:C13" headerRowCount="1">
+  <autoFilter ref="A1:C13"/>
+  <tableColumns count="3">
     <tableColumn id="1" name="Frequency"/>
     <tableColumn id="2" name="Weighted Mean TAT"/>
     <tableColumn id="3" name="Weighted Median TAT"/>
-    <tableColumn id="4" name="None"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="TatDetailsTable" displayName="TatDetailsTable" ref="A1:F57" headerRowCount="1">
-  <autoFilter ref="A1:F57"/>
-  <tableColumns count="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="TatDetailsTable" displayName="TatDetailsTable" ref="A1:E58" headerRowCount="1">
+  <autoFilter ref="A1:E58"/>
+  <tableColumns count="5">
     <tableColumn id="1" name="AuditName"/>
     <tableColumn id="2" name="Frequency"/>
     <tableColumn id="3" name="NoOfFiles"/>
     <tableColumn id="4" name="AvgTAT(Mean)"/>
     <tableColumn id="5" name="TATMedian"/>
-    <tableColumn id="6" name="None"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="PivotedDetails" displayName="PivotedDetails" ref="A1:D12" headerRowCount="1">
-  <autoFilter ref="A1:D12"/>
-  <tableColumns count="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="PivotedDetailsTable" displayName="PivotedDetailsTable" ref="A1:Y22" headerRowCount="1">
+  <autoFilter ref="A1:Y22"/>
+  <tableColumns count="25">
     <tableColumn id="1" name="AuditName"/>
-    <tableColumn id="2" name="AvgTAT(Mean)_"/>
-    <tableColumn id="3" name="AvgTAT(Mean)_Adhoc"/>
-    <tableColumn id="4" name="AvgTAT(Mean)_BiWeekly"/>
+    <tableColumn id="2" name="Adhoc (Mean)"/>
+    <tableColumn id="3" name="Adhoc (Median)"/>
+    <tableColumn id="4" name="BiWeekly (Mean)"/>
+    <tableColumn id="5" name="BiWeekly (Median)"/>
+    <tableColumn id="6" name="Daily (Mean)"/>
+    <tableColumn id="7" name="Daily (Median)"/>
+    <tableColumn id="8" name="Daily (Weekdays) (Mean)"/>
+    <tableColumn id="9" name="Daily (Weekdays) (Median)"/>
+    <tableColumn id="10" name="Monthly (Mean)"/>
+    <tableColumn id="11" name="Monthly (Median)"/>
+    <tableColumn id="12" name="N/A (Mean)"/>
+    <tableColumn id="13" name="N/A (Median)"/>
+    <tableColumn id="14" name="Periodic (Mean)"/>
+    <tableColumn id="15" name="Periodic (Median)"/>
+    <tableColumn id="16" name="Quarterly (Mean)"/>
+    <tableColumn id="17" name="Quarterly (Median)"/>
+    <tableColumn id="18" name="SemiAnnual (Mean)"/>
+    <tableColumn id="19" name="SemiAnnual (Median)"/>
+    <tableColumn id="20" name="Weekly (Mean)"/>
+    <tableColumn id="21" name="Weekly (Median)"/>
+    <tableColumn id="22" name="Weekly (Sunday) (Mean)"/>
+    <tableColumn id="23" name="Weekly (Sunday) (Median)"/>
+    <tableColumn id="24" name="Yearly (Mean)"/>
+    <tableColumn id="25" name="Yearly (Median)"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="MeanDetails" displayName="MeanDetails" ref="A1:F57" headerRowCount="1">
-  <autoFilter ref="A1:F57"/>
-  <tableColumns count="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="MeanDetailstable" displayName="MeanDetailstable" ref="A1:M22" headerRowCount="1">
+  <autoFilter ref="A1:M22"/>
+  <tableColumns count="13">
     <tableColumn id="1" name="AuditName"/>
-    <tableColumn id="2" name="None"/>
-    <tableColumn id="3" name="Adhoc"/>
-    <tableColumn id="4" name="BiWeekly"/>
-    <tableColumn id="5" name="Daily"/>
-    <tableColumn id="6" name="Daily (Weekdays)"/>
+    <tableColumn id="2" name="Adhoc"/>
+    <tableColumn id="3" name="BiWeekly"/>
+    <tableColumn id="4" name="Daily"/>
+    <tableColumn id="5" name="Daily (Weekdays)"/>
+    <tableColumn id="6" name="Monthly"/>
+    <tableColumn id="7" name="N/A"/>
+    <tableColumn id="8" name="Periodic"/>
+    <tableColumn id="9" name="Quarterly"/>
+    <tableColumn id="10" name="SemiAnnual"/>
+    <tableColumn id="11" name="Weekly"/>
+    <tableColumn id="12" name="Weekly (Sunday)"/>
+    <tableColumn id="13" name="Yearly"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="MedianDetails" displayName="MedianDetails" ref="A1:F57" headerRowCount="1">
-  <autoFilter ref="A1:F57"/>
-  <tableColumns count="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="MedianDetailsTable" displayName="MedianDetailsTable" ref="A1:M22" headerRowCount="1">
+  <autoFilter ref="A1:M22"/>
+  <tableColumns count="13">
     <tableColumn id="1" name="AuditName"/>
-    <tableColumn id="2" name="None"/>
-    <tableColumn id="3" name="Adhoc"/>
-    <tableColumn id="4" name="BiWeekly"/>
-    <tableColumn id="5" name="Daily"/>
-    <tableColumn id="6" name="Daily (Weekdays)"/>
+    <tableColumn id="2" name="Adhoc"/>
+    <tableColumn id="3" name="BiWeekly"/>
+    <tableColumn id="4" name="Daily"/>
+    <tableColumn id="5" name="Daily (Weekdays)"/>
+    <tableColumn id="6" name="Monthly"/>
+    <tableColumn id="7" name="N/A"/>
+    <tableColumn id="8" name="Periodic"/>
+    <tableColumn id="9" name="Quarterly"/>
+    <tableColumn id="10" name="SemiAnnual"/>
+    <tableColumn id="11" name="Weekly"/>
+    <tableColumn id="12" name="Weekly (Sunday)"/>
+    <tableColumn id="13" name="Yearly"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
 </table>
@@ -507,6 +540,11 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="21" customWidth="1" min="1" max="1"/>
+    <col width="22" customWidth="1" min="2" max="2"/>
+    <col width="24" customWidth="1" min="3" max="3"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -526,76 +564,81 @@
       </c>
     </row>
     <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Adhoc</t>
+        </is>
+      </c>
       <c r="B2" t="n">
-        <v>2.17</v>
+        <v>16.98</v>
       </c>
       <c r="C2" t="n">
-        <v>1.71</v>
+        <v>18.71</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Adhoc</t>
+          <t>BiWeekly</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.98</v>
+        <v>1.08</v>
       </c>
       <c r="C3" t="n">
-        <v>18.71</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>BiWeekly</t>
+          <t>Daily</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.08</v>
+        <v>0.96</v>
       </c>
       <c r="C4" t="n">
-        <v>1.08</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Daily</t>
+          <t>Daily (Weekdays)</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.96</v>
+        <v>13.21</v>
       </c>
       <c r="C5" t="n">
-        <v>0.73</v>
+        <v>13.33</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Daily (Weekdays)</t>
+          <t>Monthly</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>13.21</v>
+        <v>0.91</v>
       </c>
       <c r="C6" t="n">
-        <v>13.33</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Monthly</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.91</v>
+        <v>0.3</v>
       </c>
       <c r="C7" t="n">
-        <v>1.21</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="8">
@@ -697,6 +740,13 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="17" customWidth="1" min="1" max="1"/>
+    <col width="21" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="17" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -1025,6 +1075,11 @@
           <t>HomeDepot</t>
         </is>
       </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
       <c r="C16" t="n">
         <v>231</v>
       </c>
@@ -1146,6 +1201,11 @@
           <t>Kroger</t>
         </is>
       </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
       <c r="C22" t="n">
         <v>1984</v>
       </c>
@@ -1330,6 +1390,11 @@
           <t>PetSmart</t>
         </is>
       </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
       <c r="C31" t="n">
         <v>4</v>
       </c>
@@ -1617,6 +1682,11 @@
       <c r="A45" t="inlineStr">
         <is>
           <t>Walmart</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>N/A</t>
         </is>
       </c>
       <c r="C45" t="n">
@@ -1919,10 +1989,38 @@
   <dimension ref="A1:Y22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="17" customWidth="1" min="1" max="1"/>
+    <col width="17" customWidth="1" min="2" max="2"/>
+    <col width="19" customWidth="1" min="3" max="3"/>
+    <col width="20" customWidth="1" min="4" max="4"/>
+    <col width="22" customWidth="1" min="5" max="5"/>
+    <col width="17" customWidth="1" min="6" max="6"/>
+    <col width="19" customWidth="1" min="7" max="7"/>
+    <col width="28" customWidth="1" min="8" max="8"/>
+    <col width="30" customWidth="1" min="9" max="9"/>
+    <col width="19" customWidth="1" min="10" max="10"/>
+    <col width="21" customWidth="1" min="11" max="11"/>
+    <col width="15" customWidth="1" min="12" max="12"/>
+    <col width="17" customWidth="1" min="13" max="13"/>
+    <col width="20" customWidth="1" min="14" max="14"/>
+    <col width="22" customWidth="1" min="15" max="15"/>
+    <col width="21" customWidth="1" min="16" max="16"/>
+    <col width="23" customWidth="1" min="17" max="17"/>
+    <col width="22" customWidth="1" min="18" max="18"/>
+    <col width="24" customWidth="1" min="19" max="19"/>
+    <col width="18" customWidth="1" min="20" max="20"/>
+    <col width="20" customWidth="1" min="21" max="21"/>
+    <col width="27" customWidth="1" min="22" max="22"/>
+    <col width="29" customWidth="1" min="23" max="23"/>
+    <col width="18" customWidth="1" min="24" max="24"/>
+    <col width="20" customWidth="1" min="25" max="25"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -1932,122 +2030,122 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>AvgTAT(Mean)_</t>
+          <t>Adhoc (Mean)</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>AvgTAT(Mean)_Adhoc</t>
+          <t>Adhoc (Median)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>AvgTAT(Mean)_BiWeekly</t>
+          <t>BiWeekly (Mean)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>AvgTAT(Mean)_Daily</t>
+          <t>BiWeekly (Median)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>AvgTAT(Mean)_Daily (Weekdays)</t>
+          <t>Daily (Mean)</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>AvgTAT(Mean)_Monthly</t>
+          <t>Daily (Median)</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>AvgTAT(Mean)_Periodic</t>
+          <t>Daily (Weekdays) (Mean)</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>AvgTAT(Mean)_Quarterly</t>
+          <t>Daily (Weekdays) (Median)</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>AvgTAT(Mean)_SemiAnnual</t>
+          <t>Monthly (Mean)</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>AvgTAT(Mean)_Weekly</t>
+          <t>Monthly (Median)</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>AvgTAT(Mean)_Weekly (Sunday)</t>
+          <t>N/A (Mean)</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>AvgTAT(Mean)_Yearly</t>
+          <t>N/A (Median)</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>TATMedian_</t>
+          <t>Periodic (Mean)</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>TATMedian_Adhoc</t>
+          <t>Periodic (Median)</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>TATMedian_BiWeekly</t>
+          <t>Quarterly (Mean)</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>TATMedian_Daily</t>
+          <t>Quarterly (Median)</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>TATMedian_Daily (Weekdays)</t>
+          <t>SemiAnnual (Mean)</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>TATMedian_Monthly</t>
+          <t>SemiAnnual (Median)</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>TATMedian_Periodic</t>
+          <t>Weekly (Mean)</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>TATMedian_Quarterly</t>
+          <t>Weekly (Median)</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>TATMedian_SemiAnnual</t>
+          <t>Weekly (Sunday) (Mean)</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>TATMedian_Weekly</t>
+          <t>Weekly (Sunday) (Median)</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>TATMedian_Weekly (Sunday)</t>
+          <t>Yearly (Mean)</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>TATMedian_Yearly</t>
+          <t>Yearly (Median)</t>
         </is>
       </c>
     </row>
@@ -2057,16 +2155,16 @@
           <t>Ahold</t>
         </is>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.2083</v>
       </c>
-      <c r="K2" t="n">
+      <c r="G2" t="n">
+        <v>0.0417</v>
+      </c>
+      <c r="T2" t="n">
         <v>0.125</v>
       </c>
-      <c r="Q2" t="n">
-        <v>0.0417</v>
-      </c>
-      <c r="W2" t="n">
+      <c r="U2" t="n">
         <v>0.1667</v>
       </c>
     </row>
@@ -2076,16 +2174,16 @@
           <t>Amazon</t>
         </is>
       </c>
+      <c r="B3" t="n">
+        <v>19.0417</v>
+      </c>
       <c r="C3" t="n">
-        <v>19.0417</v>
-      </c>
-      <c r="G3" t="n">
+        <v>18.7083</v>
+      </c>
+      <c r="J3" t="n">
         <v>1.5</v>
       </c>
-      <c r="O3" t="n">
-        <v>18.7083</v>
-      </c>
-      <c r="S3" t="n">
+      <c r="K3" t="n">
         <v>1.2083</v>
       </c>
     </row>
@@ -2095,10 +2193,10 @@
           <t>BestBuy</t>
         </is>
       </c>
-      <c r="G4" t="n">
+      <c r="J4" t="n">
         <v>2</v>
       </c>
-      <c r="S4" t="n">
+      <c r="K4" t="n">
         <v>1.6667</v>
       </c>
     </row>
@@ -2108,22 +2206,22 @@
           <t>CVS</t>
         </is>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.875</v>
       </c>
       <c r="G5" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="J5" t="n">
         <v>12.9583</v>
       </c>
       <c r="K5" t="n">
+        <v>12.9583</v>
+      </c>
+      <c r="T5" t="n">
         <v>4.2917</v>
       </c>
-      <c r="Q5" t="n">
-        <v>0.875</v>
-      </c>
-      <c r="S5" t="n">
-        <v>12.9583</v>
-      </c>
-      <c r="W5" t="n">
+      <c r="U5" t="n">
         <v>4.5833</v>
       </c>
     </row>
@@ -2133,22 +2231,22 @@
           <t>CanadianTire</t>
         </is>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>1.8333</v>
       </c>
       <c r="G6" t="n">
+        <v>1.4583</v>
+      </c>
+      <c r="J6" t="n">
         <v>7.7083</v>
       </c>
       <c r="K6" t="n">
+        <v>10</v>
+      </c>
+      <c r="T6" t="n">
         <v>1.5833</v>
       </c>
-      <c r="Q6" t="n">
-        <v>1.4583</v>
-      </c>
-      <c r="S6" t="n">
-        <v>10</v>
-      </c>
-      <c r="W6" t="n">
+      <c r="U6" t="n">
         <v>1.25</v>
       </c>
     </row>
@@ -2158,14 +2256,14 @@
           <t>DSG</t>
         </is>
       </c>
-      <c r="K7" t="n">
+      <c r="T7" t="n">
         <v>2.0833</v>
       </c>
-      <c r="M7" t="n">
+      <c r="U7" t="n">
+        <v>1.0417</v>
+      </c>
+      <c r="X7" t="n">
         <v>3.9167</v>
-      </c>
-      <c r="W7" t="n">
-        <v>1.0417</v>
       </c>
       <c r="Y7" t="n">
         <v>3.9167</v>
@@ -2177,28 +2275,28 @@
           <t>Delhaize</t>
         </is>
       </c>
+      <c r="B8" t="n">
+        <v>0.4167</v>
+      </c>
       <c r="C8" t="n">
-        <v>0.4167</v>
-      </c>
-      <c r="E8" t="n">
+        <v>0.3333</v>
+      </c>
+      <c r="F8" t="n">
         <v>1</v>
       </c>
       <c r="G8" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="J8" t="n">
         <v>0.2917</v>
       </c>
       <c r="K8" t="n">
+        <v>0.2083</v>
+      </c>
+      <c r="T8" t="n">
         <v>2.125</v>
       </c>
-      <c r="O8" t="n">
-        <v>0.3333</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0.2083</v>
-      </c>
-      <c r="W8" t="n">
+      <c r="U8" t="n">
         <v>0.25</v>
       </c>
     </row>
@@ -2208,16 +2306,16 @@
           <t>GiantEagle</t>
         </is>
       </c>
-      <c r="G9" t="n">
+      <c r="J9" t="n">
         <v>5.375</v>
       </c>
       <c r="K9" t="n">
+        <v>0.7083</v>
+      </c>
+      <c r="T9" t="n">
         <v>0.0417</v>
       </c>
-      <c r="S9" t="n">
-        <v>0.7083</v>
-      </c>
-      <c r="W9" t="n">
+      <c r="U9" t="n">
         <v>0.0417</v>
       </c>
     </row>
@@ -2227,22 +2325,22 @@
           <t>HomeDepot</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="H10" t="n">
+        <v>13.2083</v>
+      </c>
+      <c r="I10" t="n">
+        <v>13.3333</v>
+      </c>
+      <c r="L10" t="n">
         <v>2.1667</v>
       </c>
-      <c r="F10" t="n">
-        <v>13.2083</v>
-      </c>
-      <c r="L10" t="n">
+      <c r="M10" t="n">
+        <v>1.7083</v>
+      </c>
+      <c r="V10" t="n">
         <v>2.6667</v>
       </c>
-      <c r="N10" t="n">
-        <v>1.7083</v>
-      </c>
-      <c r="R10" t="n">
-        <v>13.3333</v>
-      </c>
-      <c r="X10" t="n">
+      <c r="W10" t="n">
         <v>0.9167</v>
       </c>
     </row>
@@ -2252,10 +2350,10 @@
           <t>Ingles</t>
         </is>
       </c>
-      <c r="K11" t="n">
+      <c r="T11" t="n">
         <v>2.4167</v>
       </c>
-      <c r="W11" t="n">
+      <c r="U11" t="n">
         <v>2.4167</v>
       </c>
     </row>
@@ -2265,22 +2363,22 @@
           <t>JCP</t>
         </is>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>0.4583</v>
       </c>
       <c r="G12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J12" t="n">
         <v>7.5417</v>
       </c>
       <c r="K12" t="n">
+        <v>8.083299999999999</v>
+      </c>
+      <c r="T12" t="n">
         <v>0.75</v>
       </c>
-      <c r="Q12" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="S12" t="n">
-        <v>8.083299999999999</v>
-      </c>
-      <c r="W12" t="n">
+      <c r="U12" t="n">
         <v>0.25</v>
       </c>
     </row>
@@ -2290,22 +2388,28 @@
           <t>Kroger</t>
         </is>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>1</v>
       </c>
-      <c r="H13" t="n">
+      <c r="G13" t="n">
+        <v>0.8333</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.0833</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.0833</v>
+      </c>
+      <c r="N13" t="n">
         <v>1.5</v>
       </c>
-      <c r="K13" t="n">
+      <c r="O13" t="n">
+        <v>0.5417</v>
+      </c>
+      <c r="T13" t="n">
         <v>0.7917</v>
       </c>
-      <c r="Q13" t="n">
-        <v>0.8333</v>
-      </c>
-      <c r="T13" t="n">
-        <v>0.5417</v>
-      </c>
-      <c r="W13" t="n">
+      <c r="U13" t="n">
         <v>0.7083</v>
       </c>
     </row>
@@ -2315,28 +2419,28 @@
           <t>Loblaws</t>
         </is>
       </c>
+      <c r="B14" t="n">
+        <v>2.25</v>
+      </c>
       <c r="C14" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="E14" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F14" t="n">
         <v>0.6667</v>
       </c>
       <c r="G14" t="n">
+        <v>0.6667</v>
+      </c>
+      <c r="J14" t="n">
         <v>1.3333</v>
       </c>
       <c r="K14" t="n">
+        <v>0.9583</v>
+      </c>
+      <c r="T14" t="n">
         <v>2.625</v>
       </c>
-      <c r="O14" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0.6667</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0.9583</v>
-      </c>
-      <c r="W14" t="n">
+      <c r="U14" t="n">
         <v>1.2917</v>
       </c>
     </row>
@@ -2346,16 +2450,16 @@
           <t>Lowes</t>
         </is>
       </c>
-      <c r="G15" t="n">
+      <c r="J15" t="n">
         <v>1.25</v>
       </c>
       <c r="K15" t="n">
         <v>1.6667</v>
       </c>
-      <c r="S15" t="n">
+      <c r="T15" t="n">
         <v>1.6667</v>
       </c>
-      <c r="W15" t="n">
+      <c r="U15" t="n">
         <v>1.1667</v>
       </c>
     </row>
@@ -2365,10 +2469,10 @@
           <t>Overwaitea</t>
         </is>
       </c>
-      <c r="K16" t="n">
+      <c r="T16" t="n">
         <v>6.9167</v>
       </c>
-      <c r="W16" t="n">
+      <c r="U16" t="n">
         <v>3.7083</v>
       </c>
     </row>
@@ -2378,10 +2482,16 @@
           <t>PetSmart</t>
         </is>
       </c>
-      <c r="K17" t="n">
+      <c r="L17" t="n">
         <v>0.375</v>
       </c>
-      <c r="W17" t="n">
+      <c r="M17" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="U17" t="n">
         <v>0.2083</v>
       </c>
     </row>
@@ -2391,22 +2501,22 @@
           <t>RiteAid</t>
         </is>
       </c>
-      <c r="G18" t="n">
+      <c r="J18" t="n">
         <v>0.1667</v>
       </c>
-      <c r="I18" t="n">
+      <c r="K18" t="n">
+        <v>0.0417</v>
+      </c>
+      <c r="P18" t="n">
         <v>3.9167</v>
       </c>
-      <c r="K18" t="n">
+      <c r="Q18" t="n">
+        <v>3.9167</v>
+      </c>
+      <c r="T18" t="n">
         <v>0.7083</v>
       </c>
-      <c r="S18" t="n">
-        <v>0.0417</v>
-      </c>
       <c r="U18" t="n">
-        <v>3.9167</v>
-      </c>
-      <c r="W18" t="n">
         <v>0.7083</v>
       </c>
     </row>
@@ -2416,22 +2526,22 @@
           <t>Wakefern</t>
         </is>
       </c>
-      <c r="G19" t="n">
+      <c r="J19" t="n">
         <v>5.4583</v>
       </c>
-      <c r="J19" t="n">
+      <c r="K19" t="n">
+        <v>5.4583</v>
+      </c>
+      <c r="R19" t="n">
         <v>4.625</v>
       </c>
-      <c r="K19" t="n">
+      <c r="S19" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T19" t="n">
         <v>1.4167</v>
       </c>
-      <c r="S19" t="n">
-        <v>5.4583</v>
-      </c>
-      <c r="V19" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="W19" t="n">
+      <c r="U19" t="n">
         <v>1.4167</v>
       </c>
     </row>
@@ -2441,28 +2551,28 @@
           <t>Walgreens</t>
         </is>
       </c>
+      <c r="B20" t="n">
+        <v>2.5417</v>
+      </c>
       <c r="C20" t="n">
-        <v>2.5417</v>
-      </c>
-      <c r="E20" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F20" t="n">
         <v>0.7083</v>
       </c>
       <c r="G20" t="n">
+        <v>0.7917</v>
+      </c>
+      <c r="J20" t="n">
         <v>1.75</v>
       </c>
       <c r="K20" t="n">
+        <v>1.0417</v>
+      </c>
+      <c r="T20" t="n">
         <v>14.9583</v>
       </c>
-      <c r="O20" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0.7917</v>
-      </c>
-      <c r="S20" t="n">
-        <v>1.0417</v>
-      </c>
-      <c r="W20" t="n">
+      <c r="U20" t="n">
         <v>4.25</v>
       </c>
     </row>
@@ -2472,22 +2582,28 @@
           <t>Walmart</t>
         </is>
       </c>
-      <c r="E21" t="n">
+      <c r="F21" t="n">
         <v>0.0833</v>
       </c>
       <c r="G21" t="n">
+        <v>0.0833</v>
+      </c>
+      <c r="J21" t="n">
         <v>0.1667</v>
       </c>
       <c r="K21" t="n">
+        <v>0.1667</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.9167</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.9583</v>
+      </c>
+      <c r="T21" t="n">
         <v>0.0417</v>
       </c>
-      <c r="Q21" t="n">
-        <v>0.0833</v>
-      </c>
-      <c r="S21" t="n">
-        <v>0.1667</v>
-      </c>
-      <c r="W21" t="n">
+      <c r="U21" t="n">
         <v>0.0833</v>
       </c>
     </row>
@@ -2501,24 +2617,24 @@
         <v>1.0833</v>
       </c>
       <c r="E22" t="n">
+        <v>1.0833</v>
+      </c>
+      <c r="F22" t="n">
         <v>2</v>
       </c>
       <c r="G22" t="n">
+        <v>1.9583</v>
+      </c>
+      <c r="J22" t="n">
         <v>2.9583</v>
       </c>
       <c r="K22" t="n">
+        <v>1.6667</v>
+      </c>
+      <c r="T22" t="n">
         <v>1.8333</v>
       </c>
-      <c r="P22" t="n">
-        <v>1.0833</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>1.9583</v>
-      </c>
-      <c r="S22" t="n">
-        <v>1.6667</v>
-      </c>
-      <c r="W22" t="n">
+      <c r="U22" t="n">
         <v>1.6667</v>
       </c>
     </row>
@@ -2543,6 +2659,21 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="17" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="13" customWidth="1" min="3" max="3"/>
+    <col width="11" customWidth="1" min="4" max="4"/>
+    <col width="21" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="6" max="6"/>
+    <col width="11" customWidth="1" min="7" max="7"/>
+    <col width="13" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="15" customWidth="1" min="10" max="10"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="20" customWidth="1" min="12" max="12"/>
+    <col width="11" customWidth="1" min="13" max="13"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -2550,30 +2681,34 @@
           <t>AuditName</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr"/>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Adhoc</t>
+        </is>
+      </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Adhoc</t>
+          <t>BiWeekly</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>BiWeekly</t>
+          <t>Daily</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Daily</t>
+          <t>Daily (Weekdays)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Daily (Weekdays)</t>
+          <t>Monthly</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Monthly</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -2613,7 +2748,7 @@
           <t>Ahold</t>
         </is>
       </c>
-      <c r="E2" t="n">
+      <c r="D2" t="n">
         <v>0.2083</v>
       </c>
       <c r="K2" t="n">
@@ -2626,10 +2761,10 @@
           <t>Amazon</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="B3" t="n">
         <v>19.0417</v>
       </c>
-      <c r="G3" t="n">
+      <c r="F3" t="n">
         <v>1.5</v>
       </c>
     </row>
@@ -2639,7 +2774,7 @@
           <t>BestBuy</t>
         </is>
       </c>
-      <c r="G4" t="n">
+      <c r="F4" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2649,10 +2784,10 @@
           <t>CVS</t>
         </is>
       </c>
-      <c r="E5" t="n">
+      <c r="D5" t="n">
         <v>0.875</v>
       </c>
-      <c r="G5" t="n">
+      <c r="F5" t="n">
         <v>12.9583</v>
       </c>
       <c r="K5" t="n">
@@ -2665,10 +2800,10 @@
           <t>CanadianTire</t>
         </is>
       </c>
-      <c r="E6" t="n">
+      <c r="D6" t="n">
         <v>1.8333</v>
       </c>
-      <c r="G6" t="n">
+      <c r="F6" t="n">
         <v>7.7083</v>
       </c>
       <c r="K6" t="n">
@@ -2694,13 +2829,13 @@
           <t>Delhaize</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="B8" t="n">
         <v>0.4167</v>
       </c>
-      <c r="E8" t="n">
+      <c r="D8" t="n">
         <v>1</v>
       </c>
-      <c r="G8" t="n">
+      <c r="F8" t="n">
         <v>0.2917</v>
       </c>
       <c r="K8" t="n">
@@ -2713,7 +2848,7 @@
           <t>GiantEagle</t>
         </is>
       </c>
-      <c r="G9" t="n">
+      <c r="F9" t="n">
         <v>5.375</v>
       </c>
       <c r="K9" t="n">
@@ -2726,11 +2861,11 @@
           <t>HomeDepot</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="E10" t="n">
+        <v>13.2083</v>
+      </c>
+      <c r="G10" t="n">
         <v>2.1667</v>
-      </c>
-      <c r="F10" t="n">
-        <v>13.2083</v>
       </c>
       <c r="L10" t="n">
         <v>2.6667</v>
@@ -2752,10 +2887,10 @@
           <t>JCP</t>
         </is>
       </c>
-      <c r="E12" t="n">
+      <c r="D12" t="n">
         <v>0.4583</v>
       </c>
-      <c r="G12" t="n">
+      <c r="F12" t="n">
         <v>7.5417</v>
       </c>
       <c r="K12" t="n">
@@ -2768,8 +2903,11 @@
           <t>Kroger</t>
         </is>
       </c>
-      <c r="E13" t="n">
+      <c r="D13" t="n">
         <v>1</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.0833</v>
       </c>
       <c r="H13" t="n">
         <v>1.5</v>
@@ -2784,13 +2922,13 @@
           <t>Loblaws</t>
         </is>
       </c>
-      <c r="C14" t="n">
+      <c r="B14" t="n">
         <v>2.25</v>
       </c>
-      <c r="E14" t="n">
+      <c r="D14" t="n">
         <v>0.6667</v>
       </c>
-      <c r="G14" t="n">
+      <c r="F14" t="n">
         <v>1.3333</v>
       </c>
       <c r="K14" t="n">
@@ -2803,7 +2941,7 @@
           <t>Lowes</t>
         </is>
       </c>
-      <c r="G15" t="n">
+      <c r="F15" t="n">
         <v>1.25</v>
       </c>
       <c r="K15" t="n">
@@ -2826,6 +2964,9 @@
           <t>PetSmart</t>
         </is>
       </c>
+      <c r="G17" t="n">
+        <v>0.375</v>
+      </c>
       <c r="K17" t="n">
         <v>0.375</v>
       </c>
@@ -2836,7 +2977,7 @@
           <t>RiteAid</t>
         </is>
       </c>
-      <c r="G18" t="n">
+      <c r="F18" t="n">
         <v>0.1667</v>
       </c>
       <c r="I18" t="n">
@@ -2852,7 +2993,7 @@
           <t>Wakefern</t>
         </is>
       </c>
-      <c r="G19" t="n">
+      <c r="F19" t="n">
         <v>5.4583</v>
       </c>
       <c r="J19" t="n">
@@ -2868,13 +3009,13 @@
           <t>Walgreens</t>
         </is>
       </c>
-      <c r="C20" t="n">
+      <c r="B20" t="n">
         <v>2.5417</v>
       </c>
-      <c r="E20" t="n">
+      <c r="D20" t="n">
         <v>0.7083</v>
       </c>
-      <c r="G20" t="n">
+      <c r="F20" t="n">
         <v>1.75</v>
       </c>
       <c r="K20" t="n">
@@ -2887,11 +3028,14 @@
           <t>Walmart</t>
         </is>
       </c>
-      <c r="E21" t="n">
+      <c r="D21" t="n">
         <v>0.0833</v>
       </c>
+      <c r="F21" t="n">
+        <v>0.1667</v>
+      </c>
       <c r="G21" t="n">
-        <v>0.1667</v>
+        <v>0.9167</v>
       </c>
       <c r="K21" t="n">
         <v>0.0417</v>
@@ -2903,13 +3047,13 @@
           <t>WalmartMX</t>
         </is>
       </c>
+      <c r="C22" t="n">
+        <v>1.0833</v>
+      </c>
       <c r="D22" t="n">
-        <v>1.0833</v>
-      </c>
-      <c r="E22" t="n">
         <v>2</v>
       </c>
-      <c r="G22" t="n">
+      <c r="F22" t="n">
         <v>2.9583</v>
       </c>
       <c r="K22" t="n">
@@ -2937,6 +3081,21 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="17" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="13" customWidth="1" min="3" max="3"/>
+    <col width="11" customWidth="1" min="4" max="4"/>
+    <col width="21" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="6" max="6"/>
+    <col width="11" customWidth="1" min="7" max="7"/>
+    <col width="13" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="15" customWidth="1" min="10" max="10"/>
+    <col width="11" customWidth="1" min="11" max="11"/>
+    <col width="20" customWidth="1" min="12" max="12"/>
+    <col width="11" customWidth="1" min="13" max="13"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -2944,30 +3103,34 @@
           <t>AuditName</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr"/>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Adhoc</t>
+        </is>
+      </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Adhoc</t>
+          <t>BiWeekly</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>BiWeekly</t>
+          <t>Daily</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Daily</t>
+          <t>Daily (Weekdays)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Daily (Weekdays)</t>
+          <t>Monthly</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Monthly</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -3007,7 +3170,7 @@
           <t>Ahold</t>
         </is>
       </c>
-      <c r="E2" t="n">
+      <c r="D2" t="n">
         <v>0.0417</v>
       </c>
       <c r="K2" t="n">
@@ -3020,10 +3183,10 @@
           <t>Amazon</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="B3" t="n">
         <v>18.7083</v>
       </c>
-      <c r="G3" t="n">
+      <c r="F3" t="n">
         <v>1.2083</v>
       </c>
     </row>
@@ -3033,7 +3196,7 @@
           <t>BestBuy</t>
         </is>
       </c>
-      <c r="G4" t="n">
+      <c r="F4" t="n">
         <v>1.6667</v>
       </c>
     </row>
@@ -3043,10 +3206,10 @@
           <t>CVS</t>
         </is>
       </c>
-      <c r="E5" t="n">
+      <c r="D5" t="n">
         <v>0.875</v>
       </c>
-      <c r="G5" t="n">
+      <c r="F5" t="n">
         <v>12.9583</v>
       </c>
       <c r="K5" t="n">
@@ -3059,10 +3222,10 @@
           <t>CanadianTire</t>
         </is>
       </c>
-      <c r="E6" t="n">
+      <c r="D6" t="n">
         <v>1.4583</v>
       </c>
-      <c r="G6" t="n">
+      <c r="F6" t="n">
         <v>10</v>
       </c>
       <c r="K6" t="n">
@@ -3088,13 +3251,13 @@
           <t>Delhaize</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="B8" t="n">
         <v>0.3333</v>
       </c>
-      <c r="E8" t="n">
+      <c r="D8" t="n">
         <v>0.625</v>
       </c>
-      <c r="G8" t="n">
+      <c r="F8" t="n">
         <v>0.2083</v>
       </c>
       <c r="K8" t="n">
@@ -3107,7 +3270,7 @@
           <t>GiantEagle</t>
         </is>
       </c>
-      <c r="G9" t="n">
+      <c r="F9" t="n">
         <v>0.7083</v>
       </c>
       <c r="K9" t="n">
@@ -3120,11 +3283,11 @@
           <t>HomeDepot</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="E10" t="n">
+        <v>13.3333</v>
+      </c>
+      <c r="G10" t="n">
         <v>1.7083</v>
-      </c>
-      <c r="F10" t="n">
-        <v>13.3333</v>
       </c>
       <c r="L10" t="n">
         <v>0.9167</v>
@@ -3146,10 +3309,10 @@
           <t>JCP</t>
         </is>
       </c>
-      <c r="E12" t="n">
+      <c r="D12" t="n">
         <v>0.5</v>
       </c>
-      <c r="G12" t="n">
+      <c r="F12" t="n">
         <v>8.083299999999999</v>
       </c>
       <c r="K12" t="n">
@@ -3162,8 +3325,11 @@
           <t>Kroger</t>
         </is>
       </c>
-      <c r="E13" t="n">
+      <c r="D13" t="n">
         <v>0.8333</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.0833</v>
       </c>
       <c r="H13" t="n">
         <v>0.5417</v>
@@ -3178,13 +3344,13 @@
           <t>Loblaws</t>
         </is>
       </c>
-      <c r="C14" t="n">
+      <c r="B14" t="n">
         <v>2.5</v>
       </c>
-      <c r="E14" t="n">
+      <c r="D14" t="n">
         <v>0.6667</v>
       </c>
-      <c r="G14" t="n">
+      <c r="F14" t="n">
         <v>0.9583</v>
       </c>
       <c r="K14" t="n">
@@ -3197,7 +3363,7 @@
           <t>Lowes</t>
         </is>
       </c>
-      <c r="G15" t="n">
+      <c r="F15" t="n">
         <v>1.6667</v>
       </c>
       <c r="K15" t="n">
@@ -3220,6 +3386,9 @@
           <t>PetSmart</t>
         </is>
       </c>
+      <c r="G17" t="n">
+        <v>0.125</v>
+      </c>
       <c r="K17" t="n">
         <v>0.2083</v>
       </c>
@@ -3230,7 +3399,7 @@
           <t>RiteAid</t>
         </is>
       </c>
-      <c r="G18" t="n">
+      <c r="F18" t="n">
         <v>0.0417</v>
       </c>
       <c r="I18" t="n">
@@ -3246,7 +3415,7 @@
           <t>Wakefern</t>
         </is>
       </c>
-      <c r="G19" t="n">
+      <c r="F19" t="n">
         <v>5.4583</v>
       </c>
       <c r="J19" t="n">
@@ -3262,13 +3431,13 @@
           <t>Walgreens</t>
         </is>
       </c>
-      <c r="C20" t="n">
+      <c r="B20" t="n">
         <v>0.5</v>
       </c>
-      <c r="E20" t="n">
+      <c r="D20" t="n">
         <v>0.7917</v>
       </c>
-      <c r="G20" t="n">
+      <c r="F20" t="n">
         <v>1.0417</v>
       </c>
       <c r="K20" t="n">
@@ -3281,11 +3450,14 @@
           <t>Walmart</t>
         </is>
       </c>
-      <c r="E21" t="n">
+      <c r="D21" t="n">
         <v>0.0833</v>
       </c>
+      <c r="F21" t="n">
+        <v>0.1667</v>
+      </c>
       <c r="G21" t="n">
-        <v>0.1667</v>
+        <v>0.9583</v>
       </c>
       <c r="K21" t="n">
         <v>0.0833</v>
@@ -3297,13 +3469,13 @@
           <t>WalmartMX</t>
         </is>
       </c>
+      <c r="C22" t="n">
+        <v>1.0833</v>
+      </c>
       <c r="D22" t="n">
-        <v>1.0833</v>
-      </c>
-      <c r="E22" t="n">
         <v>1.9583</v>
       </c>
-      <c r="G22" t="n">
+      <c r="F22" t="n">
         <v>1.6667</v>
       </c>
       <c r="K22" t="n">

--- a/OverAllTatReport.xlsx
+++ b/OverAllTatReport.xlsx
@@ -20,7 +20,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -59,11 +61,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -141,20 +145,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="AggReportTable" displayName="AggReportTable" ref="A1:C13" headerRowCount="1">
-  <autoFilter ref="A1:C13"/>
-  <tableColumns count="3">
-    <tableColumn id="1" name="Frequency"/>
-    <tableColumn id="2" name="Weighted Mean TAT"/>
-    <tableColumn id="3" name="Weighted Median TAT"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="AggReportTable" displayName="AggReportTable" ref="A1:E14" headerRowCount="1">
+  <autoFilter ref="A1:E14"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="FromDate"/>
+    <tableColumn id="2" name="ToDate"/>
+    <tableColumn id="3" name="Frequency"/>
+    <tableColumn id="4" name="Weighted Mean TAT"/>
+    <tableColumn id="5" name="Weighted Median TAT"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="TatDetailsTable" displayName="TatDetailsTable" ref="A1:E58" headerRowCount="1">
-  <autoFilter ref="A1:E58"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="TatDetailsTable" displayName="TatDetailsTable" ref="A1:E56" headerRowCount="1">
+  <autoFilter ref="A1:E56"/>
   <tableColumns count="5">
     <tableColumn id="1" name="AuditName"/>
     <tableColumn id="2" name="Frequency"/>
@@ -167,78 +173,46 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="PivotedDetailsTable" displayName="PivotedDetailsTable" ref="A1:Y22" headerRowCount="1">
-  <autoFilter ref="A1:Y22"/>
-  <tableColumns count="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="MeanDetailstable" displayName="MeanDetailstable" ref="A1:N21" headerRowCount="1">
+  <autoFilter ref="A1:N21"/>
+  <tableColumns count="14">
     <tableColumn id="1" name="AuditName"/>
-    <tableColumn id="2" name="Adhoc (Mean)"/>
-    <tableColumn id="3" name="Adhoc (Median)"/>
-    <tableColumn id="4" name="BiWeekly (Mean)"/>
-    <tableColumn id="5" name="BiWeekly (Median)"/>
-    <tableColumn id="6" name="Daily (Mean)"/>
-    <tableColumn id="7" name="Daily (Median)"/>
-    <tableColumn id="8" name="Daily (Weekdays) (Mean)"/>
-    <tableColumn id="9" name="Daily (Weekdays) (Median)"/>
-    <tableColumn id="10" name="Monthly (Mean)"/>
-    <tableColumn id="11" name="Monthly (Median)"/>
-    <tableColumn id="12" name="N/A (Mean)"/>
-    <tableColumn id="13" name="N/A (Median)"/>
-    <tableColumn id="14" name="Periodic (Mean)"/>
-    <tableColumn id="15" name="Periodic (Median)"/>
-    <tableColumn id="16" name="Quarterly (Mean)"/>
-    <tableColumn id="17" name="Quarterly (Median)"/>
-    <tableColumn id="18" name="SemiAnnual (Mean)"/>
-    <tableColumn id="19" name="SemiAnnual (Median)"/>
-    <tableColumn id="20" name="Weekly (Mean)"/>
-    <tableColumn id="21" name="Weekly (Median)"/>
-    <tableColumn id="22" name="Weekly (Sunday) (Mean)"/>
-    <tableColumn id="23" name="Weekly (Sunday) (Median)"/>
-    <tableColumn id="24" name="Yearly (Mean)"/>
-    <tableColumn id="25" name="Yearly (Median)"/>
+    <tableColumn id="2" name="Ad hoc"/>
+    <tableColumn id="3" name="Adhoc"/>
+    <tableColumn id="4" name="BiWeekly"/>
+    <tableColumn id="5" name="Daily"/>
+    <tableColumn id="6" name="Daily (Weekdays)"/>
+    <tableColumn id="7" name="Monthly"/>
+    <tableColumn id="8" name="N/A"/>
+    <tableColumn id="9" name="Periodic"/>
+    <tableColumn id="10" name="Quarterly"/>
+    <tableColumn id="11" name="SemiAnnual"/>
+    <tableColumn id="12" name="Weekly"/>
+    <tableColumn id="13" name="Weekly (Sunday)"/>
+    <tableColumn id="14" name="Yearly"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="MeanDetailstable" displayName="MeanDetailstable" ref="A1:M22" headerRowCount="1">
-  <autoFilter ref="A1:M22"/>
-  <tableColumns count="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="MedianDetailsTable" displayName="MedianDetailsTable" ref="A1:N21" headerRowCount="1">
+  <autoFilter ref="A1:N21"/>
+  <tableColumns count="14">
     <tableColumn id="1" name="AuditName"/>
-    <tableColumn id="2" name="Adhoc"/>
-    <tableColumn id="3" name="BiWeekly"/>
-    <tableColumn id="4" name="Daily"/>
-    <tableColumn id="5" name="Daily (Weekdays)"/>
-    <tableColumn id="6" name="Monthly"/>
-    <tableColumn id="7" name="N/A"/>
-    <tableColumn id="8" name="Periodic"/>
-    <tableColumn id="9" name="Quarterly"/>
-    <tableColumn id="10" name="SemiAnnual"/>
-    <tableColumn id="11" name="Weekly"/>
-    <tableColumn id="12" name="Weekly (Sunday)"/>
-    <tableColumn id="13" name="Yearly"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
-</table>
-</file>
-
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="MedianDetailsTable" displayName="MedianDetailsTable" ref="A1:M22" headerRowCount="1">
-  <autoFilter ref="A1:M22"/>
-  <tableColumns count="13">
-    <tableColumn id="1" name="AuditName"/>
-    <tableColumn id="2" name="Adhoc"/>
-    <tableColumn id="3" name="BiWeekly"/>
-    <tableColumn id="4" name="Daily"/>
-    <tableColumn id="5" name="Daily (Weekdays)"/>
-    <tableColumn id="6" name="Monthly"/>
-    <tableColumn id="7" name="N/A"/>
-    <tableColumn id="8" name="Periodic"/>
-    <tableColumn id="9" name="Quarterly"/>
-    <tableColumn id="10" name="SemiAnnual"/>
-    <tableColumn id="11" name="Weekly"/>
-    <tableColumn id="12" name="Weekly (Sunday)"/>
-    <tableColumn id="13" name="Yearly"/>
+    <tableColumn id="2" name="Ad hoc"/>
+    <tableColumn id="3" name="Adhoc"/>
+    <tableColumn id="4" name="BiWeekly"/>
+    <tableColumn id="5" name="Daily"/>
+    <tableColumn id="6" name="Daily (Weekdays)"/>
+    <tableColumn id="7" name="Monthly"/>
+    <tableColumn id="8" name="N/A"/>
+    <tableColumn id="9" name="Periodic"/>
+    <tableColumn id="10" name="Quarterly"/>
+    <tableColumn id="11" name="SemiAnnual"/>
+    <tableColumn id="12" name="Weekly"/>
+    <tableColumn id="13" name="Weekly (Sunday)"/>
+    <tableColumn id="14" name="Yearly"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
 </table>
@@ -533,7 +507,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -541,181 +515,284 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="22" customWidth="1" min="2" max="2"/>
-    <col width="24" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="1" max="1"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="21" customWidth="1" min="3" max="3"/>
+    <col width="22" customWidth="1" min="4" max="4"/>
+    <col width="24" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>FromDate</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>ToDate</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Frequency</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Weighted Mean TAT</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Weighted Median TAT</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="3" t="n">
+        <v>45627</v>
+      </c>
+      <c r="B2" s="3" t="n">
+        <v>45657</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Ad hoc</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>12.42</v>
+      </c>
+      <c r="E2" t="n">
+        <v>13.58</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="n">
+        <v>45627</v>
+      </c>
+      <c r="B3" s="3" t="n">
+        <v>45657</v>
+      </c>
+      <c r="C3" t="inlineStr">
         <is>
           <t>Adhoc</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>16.98</v>
-      </c>
-      <c r="C2" t="n">
-        <v>18.71</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="D3" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="n">
+        <v>45627</v>
+      </c>
+      <c r="B4" s="3" t="n">
+        <v>45657</v>
+      </c>
+      <c r="C4" t="inlineStr">
         <is>
           <t>BiWeekly</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="D4" t="n">
         <v>1.08</v>
       </c>
-      <c r="C3" t="n">
+      <c r="E4" t="n">
         <v>1.08</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="3" t="n">
+        <v>45627</v>
+      </c>
+      <c r="B5" s="3" t="n">
+        <v>45657</v>
+      </c>
+      <c r="C5" t="inlineStr">
         <is>
           <t>Daily</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.73</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="D5" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>45627</v>
+      </c>
+      <c r="B6" s="3" t="n">
+        <v>45657</v>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>Daily (Weekdays)</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="D6" t="n">
         <v>13.21</v>
       </c>
-      <c r="C5" t="n">
+      <c r="E6" t="n">
         <v>13.33</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="3" t="n">
+        <v>45627</v>
+      </c>
+      <c r="B7" s="3" t="n">
+        <v>45657</v>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Monthly</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1.21</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="D7" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="n">
+        <v>45627</v>
+      </c>
+      <c r="B8" s="3" t="n">
+        <v>45657</v>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="D8" t="n">
         <v>0.3</v>
       </c>
-      <c r="C7" t="n">
-        <v>0.96</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="E8" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="n">
+        <v>45627</v>
+      </c>
+      <c r="B9" s="3" t="n">
+        <v>45657</v>
+      </c>
+      <c r="C9" t="inlineStr">
         <is>
           <t>Periodic</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="D9" t="n">
         <v>1.5</v>
       </c>
-      <c r="C8" t="n">
+      <c r="E9" t="n">
         <v>0.54</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="3" t="n">
+        <v>45627</v>
+      </c>
+      <c r="B10" s="3" t="n">
+        <v>45657</v>
+      </c>
+      <c r="C10" t="inlineStr">
         <is>
           <t>Quarterly</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="D10" t="n">
         <v>3.92</v>
       </c>
-      <c r="C9" t="n">
+      <c r="E10" t="n">
         <v>3.92</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="3" t="n">
+        <v>45627</v>
+      </c>
+      <c r="B11" s="3" t="n">
+        <v>45657</v>
+      </c>
+      <c r="C11" t="inlineStr">
         <is>
           <t>SemiAnnual</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="D11" t="n">
         <v>4.62</v>
       </c>
-      <c r="C10" t="n">
+      <c r="E11" t="n">
         <v>3.75</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="3" t="n">
+        <v>45627</v>
+      </c>
+      <c r="B12" s="3" t="n">
+        <v>45657</v>
+      </c>
+      <c r="C12" t="inlineStr">
         <is>
           <t>Weekly</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1.1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="D12" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="n">
+        <v>45627</v>
+      </c>
+      <c r="B13" s="3" t="n">
+        <v>45657</v>
+      </c>
+      <c r="C13" t="inlineStr">
         <is>
           <t>Weekly (Sunday)</t>
         </is>
       </c>
-      <c r="B12" t="n">
+      <c r="D13" t="n">
         <v>2.67</v>
       </c>
-      <c r="C12" t="n">
+      <c r="E13" t="n">
         <v>0.92</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="3" t="n">
+        <v>45627</v>
+      </c>
+      <c r="B14" s="3" t="n">
+        <v>45657</v>
+      </c>
+      <c r="C14" t="inlineStr">
         <is>
           <t>Yearly</t>
         </is>
       </c>
-      <c r="B13" t="n">
+      <c r="D14" t="n">
         <v>3.92</v>
       </c>
-      <c r="C13" t="n">
+      <c r="E14" t="n">
         <v>3.92</v>
       </c>
     </row>
@@ -733,7 +810,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E58"/>
+  <dimension ref="A1:E56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -825,17 +902,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Adhoc</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>11930</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>19.0417</v>
+        <v>0.0417</v>
       </c>
       <c r="E4" t="n">
-        <v>18.7083</v>
+        <v>0.0417</v>
       </c>
     </row>
     <row r="5">
@@ -850,76 +927,76 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>302</v>
+        <v>278</v>
       </c>
       <c r="D5" t="n">
-        <v>1.5</v>
+        <v>3.4583</v>
       </c>
       <c r="E5" t="n">
-        <v>1.2083</v>
+        <v>2.625</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BestBuy</t>
+          <t>Amazon</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Monthly</t>
+          <t>Ad hoc</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="D6" t="n">
-        <v>2</v>
+        <v>12.4167</v>
       </c>
       <c r="E6" t="n">
-        <v>1.6667</v>
+        <v>13.5833</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>CanadianTire</t>
+          <t>Amazon</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Daily</t>
+          <t>Adhoc</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2298</v>
+        <v>307</v>
       </c>
       <c r="D7" t="n">
-        <v>1.8333</v>
+        <v>3.2083</v>
       </c>
       <c r="E7" t="n">
-        <v>1.4583</v>
+        <v>2.9583</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>CanadianTire</t>
+          <t>BestBuy</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Weekly</t>
+          <t>Monthly</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="D8" t="n">
-        <v>1.5833</v>
+        <v>2</v>
       </c>
       <c r="E8" t="n">
-        <v>1.25</v>
+        <v>1.6667</v>
       </c>
     </row>
     <row r="9">
@@ -930,59 +1007,59 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Monthly</t>
+          <t>Daily</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>2298</v>
       </c>
       <c r="D9" t="n">
-        <v>7.7083</v>
+        <v>1.8333</v>
       </c>
       <c r="E9" t="n">
-        <v>10</v>
+        <v>1.4583</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Delhaize</t>
+          <t>CanadianTire</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Daily</t>
+          <t>Weekly</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>565</v>
+        <v>23</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>1.5833</v>
       </c>
       <c r="E10" t="n">
-        <v>0.625</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Delhaize</t>
+          <t>CanadianTire</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Weekly</t>
+          <t>Monthly</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>178</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
-        <v>2.125</v>
+        <v>7.7083</v>
       </c>
       <c r="E11" t="n">
-        <v>0.25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -993,17 +1070,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Adhoc</t>
+          <t>Daily</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>11</v>
+        <v>565</v>
       </c>
       <c r="D12" t="n">
-        <v>0.4167</v>
+        <v>1</v>
       </c>
       <c r="E12" t="n">
-        <v>0.3333</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="13">
@@ -1014,59 +1091,59 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Monthly</t>
+          <t>Weekly</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1283</v>
+        <v>178</v>
       </c>
       <c r="D13" t="n">
-        <v>0.2917</v>
+        <v>2.125</v>
       </c>
       <c r="E13" t="n">
-        <v>0.2083</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>HomeDepot</t>
+          <t>Delhaize</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Daily (Weekdays)</t>
+          <t>Adhoc</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>300</v>
+        <v>11</v>
       </c>
       <c r="D14" t="n">
-        <v>13.2083</v>
+        <v>0.4167</v>
       </c>
       <c r="E14" t="n">
-        <v>13.3333</v>
+        <v>0.3333</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>HomeDepot</t>
+          <t>Delhaize</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Weekly (Sunday)</t>
+          <t>Monthly</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>120</v>
+        <v>1283</v>
       </c>
       <c r="D15" t="n">
-        <v>2.6667</v>
+        <v>0.2917</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9167</v>
+        <v>0.2083</v>
       </c>
     </row>
     <row r="16">
@@ -1077,59 +1154,59 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Daily (Weekdays)</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>231</v>
+        <v>300</v>
       </c>
       <c r="D16" t="n">
-        <v>2.1667</v>
+        <v>13.2083</v>
       </c>
       <c r="E16" t="n">
-        <v>1.7083</v>
+        <v>13.3333</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>JCP</t>
+          <t>HomeDepot</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Daily</t>
+          <t>Weekly (Sunday)</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="D17" t="n">
-        <v>0.4583</v>
+        <v>2.6667</v>
       </c>
       <c r="E17" t="n">
-        <v>0.5</v>
+        <v>0.9167</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>JCP</t>
+          <t>HomeDepot</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Weekly</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>107</v>
+        <v>231</v>
       </c>
       <c r="D18" t="n">
-        <v>0.75</v>
+        <v>2.1667</v>
       </c>
       <c r="E18" t="n">
-        <v>0.25</v>
+        <v>1.7083</v>
       </c>
     </row>
     <row r="19">
@@ -1140,59 +1217,59 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Monthly</t>
+          <t>Daily</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="D19" t="n">
-        <v>7.5417</v>
+        <v>0.4583</v>
       </c>
       <c r="E19" t="n">
-        <v>8.083299999999999</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Kroger</t>
+          <t>JCP</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Daily</t>
+          <t>Weekly</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>303823</v>
+        <v>107</v>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="E20" t="n">
-        <v>0.8333</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Kroger</t>
+          <t>JCP</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Weekly</t>
+          <t>Monthly</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>68040</v>
+        <v>15</v>
       </c>
       <c r="D21" t="n">
-        <v>0.7917</v>
+        <v>7.5417</v>
       </c>
       <c r="E21" t="n">
-        <v>0.7083</v>
+        <v>8.083299999999999</v>
       </c>
     </row>
     <row r="22">
@@ -1203,17 +1280,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Daily</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1984</v>
+        <v>303823</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0833</v>
+        <v>1</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0833</v>
+        <v>0.8333</v>
       </c>
     </row>
     <row r="23">
@@ -1224,59 +1301,59 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Periodic</t>
+          <t>Weekly</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>6216</v>
+        <v>68040</v>
       </c>
       <c r="D23" t="n">
-        <v>1.5</v>
+        <v>0.7917</v>
       </c>
       <c r="E23" t="n">
-        <v>0.5417</v>
+        <v>0.7083</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Loblaws</t>
+          <t>Kroger</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Daily</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>97</v>
+        <v>1984</v>
       </c>
       <c r="D24" t="n">
-        <v>0.6667</v>
+        <v>0.0833</v>
       </c>
       <c r="E24" t="n">
-        <v>0.6667</v>
+        <v>0.0833</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Loblaws</t>
+          <t>Kroger</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Weekly</t>
+          <t>Periodic</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>274</v>
+        <v>6216</v>
       </c>
       <c r="D25" t="n">
-        <v>2.625</v>
+        <v>1.5</v>
       </c>
       <c r="E25" t="n">
-        <v>1.2917</v>
+        <v>0.5417</v>
       </c>
     </row>
     <row r="26">
@@ -1287,17 +1364,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Adhoc</t>
+          <t>Daily</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>1654</v>
+        <v>97</v>
       </c>
       <c r="D26" t="n">
-        <v>2.25</v>
+        <v>0.6667</v>
       </c>
       <c r="E26" t="n">
-        <v>2.5</v>
+        <v>0.6667</v>
       </c>
     </row>
     <row r="27">
@@ -1308,44 +1385,44 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Monthly</t>
+          <t>Weekly</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>57</v>
+        <v>274</v>
       </c>
       <c r="D27" t="n">
-        <v>1.3333</v>
+        <v>2.625</v>
       </c>
       <c r="E27" t="n">
-        <v>0.9583</v>
+        <v>1.2917</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Lowes</t>
+          <t>Loblaws</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Weekly</t>
+          <t>Adhoc</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>1728</v>
+        <v>1654</v>
       </c>
       <c r="D28" t="n">
-        <v>1.6667</v>
+        <v>2.25</v>
       </c>
       <c r="E28" t="n">
-        <v>1.1667</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Lowes</t>
+          <t>Loblaws</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1354,19 +1431,19 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>137</v>
+        <v>57</v>
       </c>
       <c r="D29" t="n">
-        <v>1.25</v>
+        <v>1.3333</v>
       </c>
       <c r="E29" t="n">
-        <v>1.6667</v>
+        <v>0.9583</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>PetSmart</t>
+          <t>Lowes</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1375,40 +1452,40 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>209</v>
+        <v>1728</v>
       </c>
       <c r="D30" t="n">
-        <v>0.375</v>
+        <v>1.6667</v>
       </c>
       <c r="E30" t="n">
-        <v>0.2083</v>
+        <v>1.1667</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>PetSmart</t>
+          <t>Lowes</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Monthly</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>137</v>
       </c>
       <c r="D31" t="n">
-        <v>0.375</v>
+        <v>1.25</v>
       </c>
       <c r="E31" t="n">
-        <v>0.125</v>
+        <v>1.6667</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>RiteAid</t>
+          <t>PetSmart</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1417,34 +1494,34 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>25</v>
+        <v>209</v>
       </c>
       <c r="D32" t="n">
-        <v>0.7083</v>
+        <v>0.375</v>
       </c>
       <c r="E32" t="n">
-        <v>0.7083</v>
+        <v>0.2083</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>RiteAid</t>
+          <t>PetSmart</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Monthly</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="C33" t="n">
         <v>4</v>
       </c>
       <c r="D33" t="n">
-        <v>0.1667</v>
+        <v>0.375</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0417</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="34">
@@ -1455,59 +1532,59 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Quarterly</t>
+          <t>Weekly</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>216</v>
+        <v>25</v>
       </c>
       <c r="D34" t="n">
-        <v>3.9167</v>
+        <v>0.7083</v>
       </c>
       <c r="E34" t="n">
-        <v>3.9167</v>
+        <v>0.7083</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Wakefern</t>
+          <t>RiteAid</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Weekly</t>
+          <t>Monthly</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
-        <v>1.4167</v>
+        <v>0.1667</v>
       </c>
       <c r="E35" t="n">
-        <v>1.4167</v>
+        <v>0.0417</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Wakefern</t>
+          <t>RiteAid</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Monthly</t>
+          <t>Quarterly</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>33</v>
+        <v>216</v>
       </c>
       <c r="D36" t="n">
-        <v>5.4583</v>
+        <v>3.9167</v>
       </c>
       <c r="E36" t="n">
-        <v>5.4583</v>
+        <v>3.9167</v>
       </c>
     </row>
     <row r="37">
@@ -1518,59 +1595,59 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>SemiAnnual</t>
+          <t>Weekly</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="D37" t="n">
-        <v>4.625</v>
+        <v>1.4167</v>
       </c>
       <c r="E37" t="n">
-        <v>3.75</v>
+        <v>1.4167</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Walgreens</t>
+          <t>Wakefern</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Daily</t>
+          <t>Monthly</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>764</v>
+        <v>33</v>
       </c>
       <c r="D38" t="n">
-        <v>0.7083</v>
+        <v>5.4583</v>
       </c>
       <c r="E38" t="n">
-        <v>0.7917</v>
+        <v>5.4583</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Walgreens</t>
+          <t>Wakefern</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Weekly</t>
+          <t>SemiAnnual</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>204</v>
+        <v>78</v>
       </c>
       <c r="D39" t="n">
-        <v>14.9583</v>
+        <v>4.625</v>
       </c>
       <c r="E39" t="n">
-        <v>4.25</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="40">
@@ -1581,17 +1658,17 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Monthly</t>
+          <t>Daily</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>336</v>
+        <v>764</v>
       </c>
       <c r="D40" t="n">
-        <v>1.75</v>
+        <v>0.7083</v>
       </c>
       <c r="E40" t="n">
-        <v>1.0417</v>
+        <v>0.7917</v>
       </c>
     </row>
     <row r="41">
@@ -1602,101 +1679,101 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Adhoc</t>
+          <t>Weekly</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>204</v>
       </c>
       <c r="D41" t="n">
-        <v>2.5417</v>
+        <v>14.9583</v>
       </c>
       <c r="E41" t="n">
-        <v>0.5</v>
+        <v>4.25</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Walmart</t>
+          <t>Walgreens</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Daily</t>
+          <t>Monthly</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>15110</v>
+        <v>336</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0833</v>
+        <v>1.75</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0833</v>
+        <v>1.0417</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Walmart</t>
+          <t>Walgreens</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Weekly</t>
+          <t>Adhoc</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>130</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0417</v>
+        <v>2.5417</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0833</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Walmart</t>
+          <t>WalmartMX</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Monthly</t>
+          <t>Daily</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>1258</v>
+        <v>766</v>
       </c>
       <c r="D44" t="n">
-        <v>0.1667</v>
+        <v>2</v>
       </c>
       <c r="E44" t="n">
-        <v>0.1667</v>
+        <v>1.9583</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Walmart</t>
+          <t>WalmartMX</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Weekly</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>15</v>
+        <v>151</v>
       </c>
       <c r="D45" t="n">
-        <v>0.9167</v>
+        <v>1.8333</v>
       </c>
       <c r="E45" t="n">
-        <v>0.9583</v>
+        <v>1.6667</v>
       </c>
     </row>
     <row r="46">
@@ -1707,17 +1784,17 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Daily</t>
+          <t>BiWeekly</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>766</v>
+        <v>8</v>
       </c>
       <c r="D46" t="n">
-        <v>2</v>
+        <v>1.0833</v>
       </c>
       <c r="E46" t="n">
-        <v>1.9583</v>
+        <v>1.0833</v>
       </c>
     </row>
     <row r="47">
@@ -1728,14 +1805,14 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Weekly</t>
+          <t>Monthly</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>151</v>
+        <v>92</v>
       </c>
       <c r="D47" t="n">
-        <v>1.8333</v>
+        <v>2.9583</v>
       </c>
       <c r="E47" t="n">
         <v>1.6667</v>
@@ -1744,70 +1821,70 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>WalmartMX</t>
+          <t>Ingles</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>BiWeekly</t>
+          <t>Weekly</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
-        <v>1.0833</v>
+        <v>2.4167</v>
       </c>
       <c r="E48" t="n">
-        <v>1.0833</v>
+        <v>2.4167</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>WalmartMX</t>
+          <t>GiantEagle</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Monthly</t>
+          <t>Weekly</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>92</v>
+        <v>11</v>
       </c>
       <c r="D49" t="n">
-        <v>2.9583</v>
+        <v>1.2917</v>
       </c>
       <c r="E49" t="n">
-        <v>1.6667</v>
+        <v>0.0417</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Ingles</t>
+          <t>GiantEagle</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Weekly</t>
+          <t>Monthly</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>406</v>
       </c>
       <c r="D50" t="n">
-        <v>2.4167</v>
+        <v>1.4583</v>
       </c>
       <c r="E50" t="n">
-        <v>2.4167</v>
+        <v>0.0833</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>GiantEagle</t>
+          <t>DSG</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1816,76 +1893,76 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0417</v>
+        <v>2.0833</v>
       </c>
       <c r="E51" t="n">
-        <v>0.0417</v>
+        <v>1.0417</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>GiantEagle</t>
+          <t>DSG</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Monthly</t>
+          <t>Yearly</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>148</v>
+        <v>11</v>
       </c>
       <c r="D52" t="n">
-        <v>5.375</v>
+        <v>3.9167</v>
       </c>
       <c r="E52" t="n">
-        <v>0.7083</v>
+        <v>3.9167</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>DSG</t>
+          <t>CVS</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Weekly</t>
+          <t>Daily</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="D53" t="n">
-        <v>2.0833</v>
+        <v>0.875</v>
       </c>
       <c r="E53" t="n">
-        <v>1.0417</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>DSG</t>
+          <t>CVS</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Yearly</t>
+          <t>Weekly</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>11</v>
+        <v>234</v>
       </c>
       <c r="D54" t="n">
-        <v>3.9167</v>
+        <v>4.2917</v>
       </c>
       <c r="E54" t="n">
-        <v>3.9167</v>
+        <v>4.5833</v>
       </c>
     </row>
     <row r="55">
@@ -1896,23 +1973,23 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Daily</t>
+          <t>Monthly</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>110</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
-        <v>0.875</v>
+        <v>12.9583</v>
       </c>
       <c r="E55" t="n">
-        <v>0.875</v>
+        <v>12.9583</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>CVS</t>
+          <t>Overwaitea</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1921,54 +1998,12 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>234</v>
+        <v>127</v>
       </c>
       <c r="D56" t="n">
-        <v>4.2917</v>
+        <v>6.9167</v>
       </c>
       <c r="E56" t="n">
-        <v>4.5833</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>CVS</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>Monthly</t>
-        </is>
-      </c>
-      <c r="C57" t="n">
-        <v>4</v>
-      </c>
-      <c r="D57" t="n">
-        <v>12.9583</v>
-      </c>
-      <c r="E57" t="n">
-        <v>12.9583</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>Overwaitea</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>Weekly</t>
-        </is>
-      </c>
-      <c r="C58" t="n">
-        <v>127</v>
-      </c>
-      <c r="D58" t="n">
-        <v>6.9167</v>
-      </c>
-      <c r="E58" t="n">
         <v>3.7083</v>
       </c>
     </row>
@@ -1981,12 +2016,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y22"/>
+  <dimension ref="A1:AA21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
@@ -1996,30 +2031,32 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="17" customWidth="1" min="1" max="1"/>
-    <col width="17" customWidth="1" min="2" max="2"/>
-    <col width="19" customWidth="1" min="3" max="3"/>
-    <col width="20" customWidth="1" min="4" max="4"/>
-    <col width="22" customWidth="1" min="5" max="5"/>
-    <col width="17" customWidth="1" min="6" max="6"/>
-    <col width="19" customWidth="1" min="7" max="7"/>
-    <col width="28" customWidth="1" min="8" max="8"/>
-    <col width="30" customWidth="1" min="9" max="9"/>
-    <col width="19" customWidth="1" min="10" max="10"/>
-    <col width="21" customWidth="1" min="11" max="11"/>
-    <col width="15" customWidth="1" min="12" max="12"/>
-    <col width="17" customWidth="1" min="13" max="13"/>
-    <col width="20" customWidth="1" min="14" max="14"/>
-    <col width="22" customWidth="1" min="15" max="15"/>
-    <col width="21" customWidth="1" min="16" max="16"/>
-    <col width="23" customWidth="1" min="17" max="17"/>
-    <col width="22" customWidth="1" min="18" max="18"/>
-    <col width="24" customWidth="1" min="19" max="19"/>
-    <col width="18" customWidth="1" min="20" max="20"/>
-    <col width="20" customWidth="1" min="21" max="21"/>
-    <col width="27" customWidth="1" min="22" max="22"/>
-    <col width="29" customWidth="1" min="23" max="23"/>
-    <col width="18" customWidth="1" min="24" max="24"/>
-    <col width="20" customWidth="1" min="25" max="25"/>
+    <col width="18" customWidth="1" min="2" max="2"/>
+    <col width="20" customWidth="1" min="3" max="3"/>
+    <col width="17" customWidth="1" min="4" max="4"/>
+    <col width="19" customWidth="1" min="5" max="5"/>
+    <col width="20" customWidth="1" min="6" max="6"/>
+    <col width="22" customWidth="1" min="7" max="7"/>
+    <col width="17" customWidth="1" min="8" max="8"/>
+    <col width="19" customWidth="1" min="9" max="9"/>
+    <col width="28" customWidth="1" min="10" max="10"/>
+    <col width="30" customWidth="1" min="11" max="11"/>
+    <col width="19" customWidth="1" min="12" max="12"/>
+    <col width="21" customWidth="1" min="13" max="13"/>
+    <col width="15" customWidth="1" min="14" max="14"/>
+    <col width="17" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="22" customWidth="1" min="17" max="17"/>
+    <col width="21" customWidth="1" min="18" max="18"/>
+    <col width="23" customWidth="1" min="19" max="19"/>
+    <col width="22" customWidth="1" min="20" max="20"/>
+    <col width="24" customWidth="1" min="21" max="21"/>
+    <col width="18" customWidth="1" min="22" max="22"/>
+    <col width="20" customWidth="1" min="23" max="23"/>
+    <col width="27" customWidth="1" min="24" max="24"/>
+    <col width="29" customWidth="1" min="25" max="25"/>
+    <col width="18" customWidth="1" min="26" max="26"/>
+    <col width="20" customWidth="1" min="27" max="27"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2030,120 +2067,130 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Ad hoc (Mean)</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Ad hoc (Median)</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>Adhoc (Mean)</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Adhoc (Median)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>BiWeekly (Mean)</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>BiWeekly (Median)</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Daily (Mean)</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Daily (Median)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Daily (Weekdays) (Mean)</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Daily (Weekdays) (Median)</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Monthly (Mean)</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Monthly (Median)</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>N/A (Mean)</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>N/A (Median)</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Periodic (Mean)</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Periodic (Median)</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Quarterly (Mean)</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Quarterly (Median)</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>SemiAnnual (Mean)</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>SemiAnnual (Median)</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Weekly (Mean)</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>Weekly (Median)</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>Weekly (Sunday) (Mean)</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>Weekly (Sunday) (Median)</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>Yearly (Mean)</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>Yearly (Median)</t>
         </is>
@@ -2155,16 +2202,16 @@
           <t>Ahold</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
         <v>0.2083</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>0.0417</v>
       </c>
-      <c r="T2" t="n">
+      <c r="V2" t="n">
         <v>0.125</v>
       </c>
-      <c r="U2" t="n">
+      <c r="W2" t="n">
         <v>0.1667</v>
       </c>
     </row>
@@ -2175,16 +2222,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19.0417</v>
+        <v>12.4167</v>
       </c>
       <c r="C3" t="n">
-        <v>18.7083</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="K3" t="n">
-        <v>1.2083</v>
+        <v>13.5833</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.2083</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2.9583</v>
+      </c>
+      <c r="L3" t="n">
+        <v>3.4583</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2.625</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.0417</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.0417</v>
       </c>
     </row>
     <row r="4">
@@ -2193,10 +2252,10 @@
           <t>BestBuy</t>
         </is>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>2</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>1.6667</v>
       </c>
     </row>
@@ -2206,22 +2265,22 @@
           <t>CVS</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="H5" t="n">
         <v>0.875</v>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>0.875</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>12.9583</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>12.9583</v>
       </c>
-      <c r="T5" t="n">
+      <c r="V5" t="n">
         <v>4.2917</v>
       </c>
-      <c r="U5" t="n">
+      <c r="W5" t="n">
         <v>4.5833</v>
       </c>
     </row>
@@ -2231,22 +2290,22 @@
           <t>CanadianTire</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="H6" t="n">
         <v>1.8333</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>1.4583</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>7.7083</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>10</v>
       </c>
-      <c r="T6" t="n">
+      <c r="V6" t="n">
         <v>1.5833</v>
       </c>
-      <c r="U6" t="n">
+      <c r="W6" t="n">
         <v>1.25</v>
       </c>
     </row>
@@ -2256,16 +2315,16 @@
           <t>DSG</t>
         </is>
       </c>
-      <c r="T7" t="n">
+      <c r="V7" t="n">
         <v>2.0833</v>
       </c>
-      <c r="U7" t="n">
+      <c r="W7" t="n">
         <v>1.0417</v>
       </c>
-      <c r="X7" t="n">
+      <c r="Z7" t="n">
         <v>3.9167</v>
       </c>
-      <c r="Y7" t="n">
+      <c r="AA7" t="n">
         <v>3.9167</v>
       </c>
     </row>
@@ -2275,28 +2334,28 @@
           <t>Delhaize</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="D8" t="n">
         <v>0.4167</v>
       </c>
-      <c r="C8" t="n">
+      <c r="E8" t="n">
         <v>0.3333</v>
       </c>
-      <c r="F8" t="n">
+      <c r="H8" t="n">
         <v>1</v>
       </c>
-      <c r="G8" t="n">
+      <c r="I8" t="n">
         <v>0.625</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>0.2917</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>0.2083</v>
       </c>
-      <c r="T8" t="n">
+      <c r="V8" t="n">
         <v>2.125</v>
       </c>
-      <c r="U8" t="n">
+      <c r="W8" t="n">
         <v>0.25</v>
       </c>
     </row>
@@ -2306,16 +2365,16 @@
           <t>GiantEagle</t>
         </is>
       </c>
-      <c r="J9" t="n">
-        <v>5.375</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.7083</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0.0417</v>
-      </c>
-      <c r="U9" t="n">
+      <c r="L9" t="n">
+        <v>1.4583</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.0833</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1.2917</v>
+      </c>
+      <c r="W9" t="n">
         <v>0.0417</v>
       </c>
     </row>
@@ -2325,22 +2384,22 @@
           <t>HomeDepot</t>
         </is>
       </c>
-      <c r="H10" t="n">
+      <c r="J10" t="n">
         <v>13.2083</v>
       </c>
-      <c r="I10" t="n">
+      <c r="K10" t="n">
         <v>13.3333</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
         <v>2.1667</v>
       </c>
-      <c r="M10" t="n">
+      <c r="O10" t="n">
         <v>1.7083</v>
       </c>
-      <c r="V10" t="n">
+      <c r="X10" t="n">
         <v>2.6667</v>
       </c>
-      <c r="W10" t="n">
+      <c r="Y10" t="n">
         <v>0.9167</v>
       </c>
     </row>
@@ -2350,10 +2409,10 @@
           <t>Ingles</t>
         </is>
       </c>
-      <c r="T11" t="n">
+      <c r="V11" t="n">
         <v>2.4167</v>
       </c>
-      <c r="U11" t="n">
+      <c r="W11" t="n">
         <v>2.4167</v>
       </c>
     </row>
@@ -2363,22 +2422,22 @@
           <t>JCP</t>
         </is>
       </c>
-      <c r="F12" t="n">
+      <c r="H12" t="n">
         <v>0.4583</v>
       </c>
-      <c r="G12" t="n">
+      <c r="I12" t="n">
         <v>0.5</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>7.5417</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>8.083299999999999</v>
       </c>
-      <c r="T12" t="n">
+      <c r="V12" t="n">
         <v>0.75</v>
       </c>
-      <c r="U12" t="n">
+      <c r="W12" t="n">
         <v>0.25</v>
       </c>
     </row>
@@ -2388,28 +2447,28 @@
           <t>Kroger</t>
         </is>
       </c>
-      <c r="F13" t="n">
+      <c r="H13" t="n">
         <v>1</v>
       </c>
-      <c r="G13" t="n">
+      <c r="I13" t="n">
         <v>0.8333</v>
       </c>
-      <c r="L13" t="n">
+      <c r="N13" t="n">
         <v>0.0833</v>
       </c>
-      <c r="M13" t="n">
+      <c r="O13" t="n">
         <v>0.0833</v>
       </c>
-      <c r="N13" t="n">
+      <c r="P13" t="n">
         <v>1.5</v>
       </c>
-      <c r="O13" t="n">
+      <c r="Q13" t="n">
         <v>0.5417</v>
       </c>
-      <c r="T13" t="n">
+      <c r="V13" t="n">
         <v>0.7917</v>
       </c>
-      <c r="U13" t="n">
+      <c r="W13" t="n">
         <v>0.7083</v>
       </c>
     </row>
@@ -2419,28 +2478,28 @@
           <t>Loblaws</t>
         </is>
       </c>
-      <c r="B14" t="n">
+      <c r="D14" t="n">
         <v>2.25</v>
       </c>
-      <c r="C14" t="n">
+      <c r="E14" t="n">
         <v>2.5</v>
       </c>
-      <c r="F14" t="n">
+      <c r="H14" t="n">
         <v>0.6667</v>
       </c>
-      <c r="G14" t="n">
+      <c r="I14" t="n">
         <v>0.6667</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>1.3333</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>0.9583</v>
       </c>
-      <c r="T14" t="n">
+      <c r="V14" t="n">
         <v>2.625</v>
       </c>
-      <c r="U14" t="n">
+      <c r="W14" t="n">
         <v>1.2917</v>
       </c>
     </row>
@@ -2450,16 +2509,16 @@
           <t>Lowes</t>
         </is>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>1.25</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>1.6667</v>
       </c>
-      <c r="T15" t="n">
+      <c r="V15" t="n">
         <v>1.6667</v>
       </c>
-      <c r="U15" t="n">
+      <c r="W15" t="n">
         <v>1.1667</v>
       </c>
     </row>
@@ -2469,10 +2528,10 @@
           <t>Overwaitea</t>
         </is>
       </c>
-      <c r="T16" t="n">
+      <c r="V16" t="n">
         <v>6.9167</v>
       </c>
-      <c r="U16" t="n">
+      <c r="W16" t="n">
         <v>3.7083</v>
       </c>
     </row>
@@ -2482,16 +2541,16 @@
           <t>PetSmart</t>
         </is>
       </c>
-      <c r="L17" t="n">
+      <c r="N17" t="n">
         <v>0.375</v>
       </c>
-      <c r="M17" t="n">
+      <c r="O17" t="n">
         <v>0.125</v>
       </c>
-      <c r="T17" t="n">
+      <c r="V17" t="n">
         <v>0.375</v>
       </c>
-      <c r="U17" t="n">
+      <c r="W17" t="n">
         <v>0.2083</v>
       </c>
     </row>
@@ -2501,22 +2560,22 @@
           <t>RiteAid</t>
         </is>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>0.1667</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>0.0417</v>
       </c>
-      <c r="P18" t="n">
+      <c r="R18" t="n">
         <v>3.9167</v>
       </c>
-      <c r="Q18" t="n">
+      <c r="S18" t="n">
         <v>3.9167</v>
       </c>
-      <c r="T18" t="n">
+      <c r="V18" t="n">
         <v>0.7083</v>
       </c>
-      <c r="U18" t="n">
+      <c r="W18" t="n">
         <v>0.7083</v>
       </c>
     </row>
@@ -2526,22 +2585,22 @@
           <t>Wakefern</t>
         </is>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>5.4583</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>5.4583</v>
       </c>
-      <c r="R19" t="n">
+      <c r="T19" t="n">
         <v>4.625</v>
       </c>
-      <c r="S19" t="n">
+      <c r="U19" t="n">
         <v>3.75</v>
       </c>
-      <c r="T19" t="n">
+      <c r="V19" t="n">
         <v>1.4167</v>
       </c>
-      <c r="U19" t="n">
+      <c r="W19" t="n">
         <v>1.4167</v>
       </c>
     </row>
@@ -2551,98 +2610,64 @@
           <t>Walgreens</t>
         </is>
       </c>
-      <c r="B20" t="n">
+      <c r="D20" t="n">
         <v>2.5417</v>
       </c>
-      <c r="C20" t="n">
+      <c r="E20" t="n">
         <v>0.5</v>
       </c>
-      <c r="F20" t="n">
+      <c r="H20" t="n">
         <v>0.7083</v>
       </c>
-      <c r="G20" t="n">
+      <c r="I20" t="n">
         <v>0.7917</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>1.75</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>1.0417</v>
       </c>
-      <c r="T20" t="n">
+      <c r="V20" t="n">
         <v>14.9583</v>
       </c>
-      <c r="U20" t="n">
+      <c r="W20" t="n">
         <v>4.25</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Walmart</t>
+          <t>WalmartMX</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.0833</v>
+        <v>1.0833</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0833</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0.1667</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0.1667</v>
+        <v>1.0833</v>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+      <c r="I21" t="n">
+        <v>1.9583</v>
       </c>
       <c r="L21" t="n">
-        <v>0.9167</v>
+        <v>2.9583</v>
       </c>
       <c r="M21" t="n">
-        <v>0.9583</v>
-      </c>
-      <c r="T21" t="n">
-        <v>0.0417</v>
-      </c>
-      <c r="U21" t="n">
-        <v>0.0833</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>WalmartMX</t>
-        </is>
-      </c>
-      <c r="D22" t="n">
-        <v>1.0833</v>
-      </c>
-      <c r="E22" t="n">
-        <v>1.0833</v>
-      </c>
-      <c r="F22" t="n">
-        <v>2</v>
-      </c>
-      <c r="G22" t="n">
-        <v>1.9583</v>
-      </c>
-      <c r="J22" t="n">
-        <v>2.9583</v>
-      </c>
-      <c r="K22" t="n">
         <v>1.6667</v>
       </c>
-      <c r="T22" t="n">
+      <c r="V21" t="n">
         <v>1.8333</v>
       </c>
-      <c r="U22" t="n">
+      <c r="W21" t="n">
         <v>1.6667</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
 </worksheet>
 </file>
 
@@ -2652,7 +2677,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M22"/>
+  <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2662,17 +2687,18 @@
   <cols>
     <col width="17" customWidth="1" min="1" max="1"/>
     <col width="12" customWidth="1" min="2" max="2"/>
-    <col width="13" customWidth="1" min="3" max="3"/>
-    <col width="11" customWidth="1" min="4" max="4"/>
-    <col width="21" customWidth="1" min="5" max="5"/>
-    <col width="12" customWidth="1" min="6" max="6"/>
-    <col width="11" customWidth="1" min="7" max="7"/>
-    <col width="13" customWidth="1" min="8" max="8"/>
-    <col width="14" customWidth="1" min="9" max="9"/>
-    <col width="15" customWidth="1" min="10" max="10"/>
-    <col width="12" customWidth="1" min="11" max="11"/>
-    <col width="20" customWidth="1" min="12" max="12"/>
-    <col width="11" customWidth="1" min="13" max="13"/>
+    <col width="11" customWidth="1" min="3" max="3"/>
+    <col width="13" customWidth="1" min="4" max="4"/>
+    <col width="11" customWidth="1" min="5" max="5"/>
+    <col width="21" customWidth="1" min="6" max="6"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="11" customWidth="1" min="8" max="8"/>
+    <col width="13" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="15" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="12" max="12"/>
+    <col width="20" customWidth="1" min="13" max="13"/>
+    <col width="11" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2683,60 +2709,65 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Ad hoc</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Adhoc</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>BiWeekly</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Daily</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Daily (Weekdays)</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Monthly</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Periodic</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Quarterly</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>SemiAnnual</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Weekly</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Weekly (Sunday)</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Yearly</t>
         </is>
@@ -2748,10 +2779,10 @@
           <t>Ahold</t>
         </is>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>0.2083</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>0.125</v>
       </c>
     </row>
@@ -2762,10 +2793,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19.0417</v>
-      </c>
-      <c r="F3" t="n">
-        <v>1.5</v>
+        <v>12.4167</v>
+      </c>
+      <c r="C3" t="n">
+        <v>3.2083</v>
+      </c>
+      <c r="G3" t="n">
+        <v>3.4583</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.0417</v>
       </c>
     </row>
     <row r="4">
@@ -2774,7 +2811,7 @@
           <t>BestBuy</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2784,13 +2821,13 @@
           <t>CVS</t>
         </is>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
         <v>0.875</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>12.9583</v>
       </c>
-      <c r="K5" t="n">
+      <c r="L5" t="n">
         <v>4.2917</v>
       </c>
     </row>
@@ -2800,13 +2837,13 @@
           <t>CanadianTire</t>
         </is>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
         <v>1.8333</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>7.7083</v>
       </c>
-      <c r="K6" t="n">
+      <c r="L6" t="n">
         <v>1.5833</v>
       </c>
     </row>
@@ -2816,10 +2853,10 @@
           <t>DSG</t>
         </is>
       </c>
-      <c r="K7" t="n">
+      <c r="L7" t="n">
         <v>2.0833</v>
       </c>
-      <c r="M7" t="n">
+      <c r="N7" t="n">
         <v>3.9167</v>
       </c>
     </row>
@@ -2829,16 +2866,16 @@
           <t>Delhaize</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="C8" t="n">
         <v>0.4167</v>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
         <v>1</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>0.2917</v>
       </c>
-      <c r="K8" t="n">
+      <c r="L8" t="n">
         <v>2.125</v>
       </c>
     </row>
@@ -2848,11 +2885,11 @@
           <t>GiantEagle</t>
         </is>
       </c>
-      <c r="F9" t="n">
-        <v>5.375</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.0417</v>
+      <c r="G9" t="n">
+        <v>1.4583</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.2917</v>
       </c>
     </row>
     <row r="10">
@@ -2861,13 +2898,13 @@
           <t>HomeDepot</t>
         </is>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>13.2083</v>
       </c>
-      <c r="G10" t="n">
+      <c r="H10" t="n">
         <v>2.1667</v>
       </c>
-      <c r="L10" t="n">
+      <c r="M10" t="n">
         <v>2.6667</v>
       </c>
     </row>
@@ -2877,7 +2914,7 @@
           <t>Ingles</t>
         </is>
       </c>
-      <c r="K11" t="n">
+      <c r="L11" t="n">
         <v>2.4167</v>
       </c>
     </row>
@@ -2887,13 +2924,13 @@
           <t>JCP</t>
         </is>
       </c>
-      <c r="D12" t="n">
+      <c r="E12" t="n">
         <v>0.4583</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
         <v>7.5417</v>
       </c>
-      <c r="K12" t="n">
+      <c r="L12" t="n">
         <v>0.75</v>
       </c>
     </row>
@@ -2903,16 +2940,16 @@
           <t>Kroger</t>
         </is>
       </c>
-      <c r="D13" t="n">
+      <c r="E13" t="n">
         <v>1</v>
       </c>
-      <c r="G13" t="n">
+      <c r="H13" t="n">
         <v>0.0833</v>
       </c>
-      <c r="H13" t="n">
+      <c r="I13" t="n">
         <v>1.5</v>
       </c>
-      <c r="K13" t="n">
+      <c r="L13" t="n">
         <v>0.7917</v>
       </c>
     </row>
@@ -2922,16 +2959,16 @@
           <t>Loblaws</t>
         </is>
       </c>
-      <c r="B14" t="n">
+      <c r="C14" t="n">
         <v>2.25</v>
       </c>
-      <c r="D14" t="n">
+      <c r="E14" t="n">
         <v>0.6667</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
         <v>1.3333</v>
       </c>
-      <c r="K14" t="n">
+      <c r="L14" t="n">
         <v>2.625</v>
       </c>
     </row>
@@ -2941,10 +2978,10 @@
           <t>Lowes</t>
         </is>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
         <v>1.25</v>
       </c>
-      <c r="K15" t="n">
+      <c r="L15" t="n">
         <v>1.6667</v>
       </c>
     </row>
@@ -2954,7 +2991,7 @@
           <t>Overwaitea</t>
         </is>
       </c>
-      <c r="K16" t="n">
+      <c r="L16" t="n">
         <v>6.9167</v>
       </c>
     </row>
@@ -2964,10 +3001,10 @@
           <t>PetSmart</t>
         </is>
       </c>
-      <c r="G17" t="n">
+      <c r="H17" t="n">
         <v>0.375</v>
       </c>
-      <c r="K17" t="n">
+      <c r="L17" t="n">
         <v>0.375</v>
       </c>
     </row>
@@ -2977,13 +3014,13 @@
           <t>RiteAid</t>
         </is>
       </c>
-      <c r="F18" t="n">
+      <c r="G18" t="n">
         <v>0.1667</v>
       </c>
-      <c r="I18" t="n">
+      <c r="J18" t="n">
         <v>3.9167</v>
       </c>
-      <c r="K18" t="n">
+      <c r="L18" t="n">
         <v>0.7083</v>
       </c>
     </row>
@@ -2993,13 +3030,13 @@
           <t>Wakefern</t>
         </is>
       </c>
-      <c r="F19" t="n">
+      <c r="G19" t="n">
         <v>5.4583</v>
       </c>
-      <c r="J19" t="n">
+      <c r="K19" t="n">
         <v>4.625</v>
       </c>
-      <c r="K19" t="n">
+      <c r="L19" t="n">
         <v>1.4167</v>
       </c>
     </row>
@@ -3009,54 +3046,35 @@
           <t>Walgreens</t>
         </is>
       </c>
-      <c r="B20" t="n">
+      <c r="C20" t="n">
         <v>2.5417</v>
       </c>
-      <c r="D20" t="n">
+      <c r="E20" t="n">
         <v>0.7083</v>
       </c>
-      <c r="F20" t="n">
+      <c r="G20" t="n">
         <v>1.75</v>
       </c>
-      <c r="K20" t="n">
+      <c r="L20" t="n">
         <v>14.9583</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Walmart</t>
+          <t>WalmartMX</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.0833</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0.1667</v>
+        <v>1.0833</v>
+      </c>
+      <c r="E21" t="n">
+        <v>2</v>
       </c>
       <c r="G21" t="n">
-        <v>0.9167</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0.0417</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>WalmartMX</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>1.0833</v>
-      </c>
-      <c r="D22" t="n">
-        <v>2</v>
-      </c>
-      <c r="F22" t="n">
         <v>2.9583</v>
       </c>
-      <c r="K22" t="n">
+      <c r="L21" t="n">
         <v>1.8333</v>
       </c>
     </row>
@@ -3074,7 +3092,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M22"/>
+  <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3084,17 +3102,18 @@
   <cols>
     <col width="17" customWidth="1" min="1" max="1"/>
     <col width="12" customWidth="1" min="2" max="2"/>
-    <col width="13" customWidth="1" min="3" max="3"/>
-    <col width="11" customWidth="1" min="4" max="4"/>
-    <col width="21" customWidth="1" min="5" max="5"/>
-    <col width="12" customWidth="1" min="6" max="6"/>
-    <col width="11" customWidth="1" min="7" max="7"/>
-    <col width="13" customWidth="1" min="8" max="8"/>
-    <col width="14" customWidth="1" min="9" max="9"/>
-    <col width="15" customWidth="1" min="10" max="10"/>
-    <col width="11" customWidth="1" min="11" max="11"/>
-    <col width="20" customWidth="1" min="12" max="12"/>
-    <col width="11" customWidth="1" min="13" max="13"/>
+    <col width="11" customWidth="1" min="3" max="3"/>
+    <col width="13" customWidth="1" min="4" max="4"/>
+    <col width="11" customWidth="1" min="5" max="5"/>
+    <col width="21" customWidth="1" min="6" max="6"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="11" customWidth="1" min="8" max="8"/>
+    <col width="13" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="15" customWidth="1" min="11" max="11"/>
+    <col width="11" customWidth="1" min="12" max="12"/>
+    <col width="20" customWidth="1" min="13" max="13"/>
+    <col width="11" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3105,60 +3124,65 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Ad hoc</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Adhoc</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>BiWeekly</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Daily</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Daily (Weekdays)</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Monthly</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Periodic</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Quarterly</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>SemiAnnual</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Weekly</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Weekly (Sunday)</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Yearly</t>
         </is>
@@ -3170,10 +3194,10 @@
           <t>Ahold</t>
         </is>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>0.0417</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>0.1667</v>
       </c>
     </row>
@@ -3184,10 +3208,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>18.7083</v>
-      </c>
-      <c r="F3" t="n">
-        <v>1.2083</v>
+        <v>13.5833</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2.9583</v>
+      </c>
+      <c r="G3" t="n">
+        <v>2.625</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.0417</v>
       </c>
     </row>
     <row r="4">
@@ -3196,7 +3226,7 @@
           <t>BestBuy</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>1.6667</v>
       </c>
     </row>
@@ -3206,13 +3236,13 @@
           <t>CVS</t>
         </is>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
         <v>0.875</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>12.9583</v>
       </c>
-      <c r="K5" t="n">
+      <c r="L5" t="n">
         <v>4.5833</v>
       </c>
     </row>
@@ -3222,13 +3252,13 @@
           <t>CanadianTire</t>
         </is>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
         <v>1.4583</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>10</v>
       </c>
-      <c r="K6" t="n">
+      <c r="L6" t="n">
         <v>1.25</v>
       </c>
     </row>
@@ -3238,10 +3268,10 @@
           <t>DSG</t>
         </is>
       </c>
-      <c r="K7" t="n">
+      <c r="L7" t="n">
         <v>1.0417</v>
       </c>
-      <c r="M7" t="n">
+      <c r="N7" t="n">
         <v>3.9167</v>
       </c>
     </row>
@@ -3251,16 +3281,16 @@
           <t>Delhaize</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="C8" t="n">
         <v>0.3333</v>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
         <v>0.625</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>0.2083</v>
       </c>
-      <c r="K8" t="n">
+      <c r="L8" t="n">
         <v>0.25</v>
       </c>
     </row>
@@ -3270,10 +3300,10 @@
           <t>GiantEagle</t>
         </is>
       </c>
-      <c r="F9" t="n">
-        <v>0.7083</v>
-      </c>
-      <c r="K9" t="n">
+      <c r="G9" t="n">
+        <v>0.0833</v>
+      </c>
+      <c r="L9" t="n">
         <v>0.0417</v>
       </c>
     </row>
@@ -3283,13 +3313,13 @@
           <t>HomeDepot</t>
         </is>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>13.3333</v>
       </c>
-      <c r="G10" t="n">
+      <c r="H10" t="n">
         <v>1.7083</v>
       </c>
-      <c r="L10" t="n">
+      <c r="M10" t="n">
         <v>0.9167</v>
       </c>
     </row>
@@ -3299,7 +3329,7 @@
           <t>Ingles</t>
         </is>
       </c>
-      <c r="K11" t="n">
+      <c r="L11" t="n">
         <v>2.4167</v>
       </c>
     </row>
@@ -3309,13 +3339,13 @@
           <t>JCP</t>
         </is>
       </c>
-      <c r="D12" t="n">
+      <c r="E12" t="n">
         <v>0.5</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
         <v>8.083299999999999</v>
       </c>
-      <c r="K12" t="n">
+      <c r="L12" t="n">
         <v>0.25</v>
       </c>
     </row>
@@ -3325,16 +3355,16 @@
           <t>Kroger</t>
         </is>
       </c>
-      <c r="D13" t="n">
+      <c r="E13" t="n">
         <v>0.8333</v>
       </c>
-      <c r="G13" t="n">
+      <c r="H13" t="n">
         <v>0.0833</v>
       </c>
-      <c r="H13" t="n">
+      <c r="I13" t="n">
         <v>0.5417</v>
       </c>
-      <c r="K13" t="n">
+      <c r="L13" t="n">
         <v>0.7083</v>
       </c>
     </row>
@@ -3344,16 +3374,16 @@
           <t>Loblaws</t>
         </is>
       </c>
-      <c r="B14" t="n">
+      <c r="C14" t="n">
         <v>2.5</v>
       </c>
-      <c r="D14" t="n">
+      <c r="E14" t="n">
         <v>0.6667</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
         <v>0.9583</v>
       </c>
-      <c r="K14" t="n">
+      <c r="L14" t="n">
         <v>1.2917</v>
       </c>
     </row>
@@ -3363,10 +3393,10 @@
           <t>Lowes</t>
         </is>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
         <v>1.6667</v>
       </c>
-      <c r="K15" t="n">
+      <c r="L15" t="n">
         <v>1.1667</v>
       </c>
     </row>
@@ -3376,7 +3406,7 @@
           <t>Overwaitea</t>
         </is>
       </c>
-      <c r="K16" t="n">
+      <c r="L16" t="n">
         <v>3.7083</v>
       </c>
     </row>
@@ -3386,10 +3416,10 @@
           <t>PetSmart</t>
         </is>
       </c>
-      <c r="G17" t="n">
+      <c r="H17" t="n">
         <v>0.125</v>
       </c>
-      <c r="K17" t="n">
+      <c r="L17" t="n">
         <v>0.2083</v>
       </c>
     </row>
@@ -3399,13 +3429,13 @@
           <t>RiteAid</t>
         </is>
       </c>
-      <c r="F18" t="n">
+      <c r="G18" t="n">
         <v>0.0417</v>
       </c>
-      <c r="I18" t="n">
+      <c r="J18" t="n">
         <v>3.9167</v>
       </c>
-      <c r="K18" t="n">
+      <c r="L18" t="n">
         <v>0.7083</v>
       </c>
     </row>
@@ -3415,13 +3445,13 @@
           <t>Wakefern</t>
         </is>
       </c>
-      <c r="F19" t="n">
+      <c r="G19" t="n">
         <v>5.4583</v>
       </c>
-      <c r="J19" t="n">
+      <c r="K19" t="n">
         <v>3.75</v>
       </c>
-      <c r="K19" t="n">
+      <c r="L19" t="n">
         <v>1.4167</v>
       </c>
     </row>
@@ -3431,54 +3461,35 @@
           <t>Walgreens</t>
         </is>
       </c>
-      <c r="B20" t="n">
+      <c r="C20" t="n">
         <v>0.5</v>
       </c>
-      <c r="D20" t="n">
+      <c r="E20" t="n">
         <v>0.7917</v>
       </c>
-      <c r="F20" t="n">
+      <c r="G20" t="n">
         <v>1.0417</v>
       </c>
-      <c r="K20" t="n">
+      <c r="L20" t="n">
         <v>4.25</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Walmart</t>
+          <t>WalmartMX</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.0833</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0.1667</v>
+        <v>1.0833</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1.9583</v>
       </c>
       <c r="G21" t="n">
-        <v>0.9583</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0.0833</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>WalmartMX</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>1.0833</v>
-      </c>
-      <c r="D22" t="n">
-        <v>1.9583</v>
-      </c>
-      <c r="F22" t="n">
         <v>1.6667</v>
       </c>
-      <c r="K22" t="n">
+      <c r="L21" t="n">
         <v>1.6667</v>
       </c>
     </row>

--- a/OverAllTatReport.xlsx
+++ b/OverAllTatReport.xlsx
@@ -12,6 +12,7 @@
     <sheet name="PivotedDetails" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="MeanDetails" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="MedianDetails" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="OLA" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -145,8 +146,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="AggReportTable" displayName="AggReportTable" ref="A1:E14" headerRowCount="1">
-  <autoFilter ref="A1:E14"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="AggReportTable" displayName="AggReportTable" ref="A1:E12" headerRowCount="1">
+  <autoFilter ref="A1:E12"/>
   <tableColumns count="5">
     <tableColumn id="1" name="FromDate"/>
     <tableColumn id="2" name="ToDate"/>
@@ -159,60 +160,70 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="TatDetailsTable" displayName="TatDetailsTable" ref="A1:E56" headerRowCount="1">
-  <autoFilter ref="A1:E56"/>
-  <tableColumns count="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="TatDetailsTable" displayName="TatDetailsTable" ref="A1:G54" headerRowCount="1">
+  <autoFilter ref="A1:G54"/>
+  <tableColumns count="7">
     <tableColumn id="1" name="AuditName"/>
     <tableColumn id="2" name="Frequency"/>
     <tableColumn id="3" name="NoOfFiles"/>
     <tableColumn id="4" name="AvgTAT(Mean)"/>
     <tableColumn id="5" name="TATMedian"/>
+    <tableColumn id="6" name="OLAMetPer"/>
+    <tableColumn id="7" name="OLANotMetPer"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="MeanDetailstable" displayName="MeanDetailstable" ref="A1:N21" headerRowCount="1">
-  <autoFilter ref="A1:N21"/>
-  <tableColumns count="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="MeanDetailstable" displayName="MeanDetailstable" ref="A1:L21" headerRowCount="1">
+  <autoFilter ref="A1:L21"/>
+  <tableColumns count="12">
     <tableColumn id="1" name="AuditName"/>
-    <tableColumn id="2" name="Ad hoc"/>
-    <tableColumn id="3" name="Adhoc"/>
-    <tableColumn id="4" name="BiWeekly"/>
-    <tableColumn id="5" name="Daily"/>
-    <tableColumn id="6" name="Daily (Weekdays)"/>
-    <tableColumn id="7" name="Monthly"/>
-    <tableColumn id="8" name="N/A"/>
-    <tableColumn id="9" name="Periodic"/>
-    <tableColumn id="10" name="Quarterly"/>
-    <tableColumn id="11" name="SemiAnnual"/>
-    <tableColumn id="12" name="Weekly"/>
-    <tableColumn id="13" name="Weekly (Sunday)"/>
-    <tableColumn id="14" name="Yearly"/>
+    <tableColumn id="2" name="Adhoc"/>
+    <tableColumn id="3" name="BiWeekly"/>
+    <tableColumn id="4" name="Daily"/>
+    <tableColumn id="5" name="Daily (Weekdays)"/>
+    <tableColumn id="6" name="Monthly"/>
+    <tableColumn id="7" name="Periodic"/>
+    <tableColumn id="8" name="Quarterly"/>
+    <tableColumn id="9" name="SemiAnnual"/>
+    <tableColumn id="10" name="Weekly"/>
+    <tableColumn id="11" name="Weekly (Sunday)"/>
+    <tableColumn id="12" name="Yearly"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="MedianDetailsTable" displayName="MedianDetailsTable" ref="A1:N21" headerRowCount="1">
-  <autoFilter ref="A1:N21"/>
-  <tableColumns count="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="MedianDetailsTable" displayName="MedianDetailsTable" ref="A1:L21" headerRowCount="1">
+  <autoFilter ref="A1:L21"/>
+  <tableColumns count="12">
     <tableColumn id="1" name="AuditName"/>
-    <tableColumn id="2" name="Ad hoc"/>
-    <tableColumn id="3" name="Adhoc"/>
-    <tableColumn id="4" name="BiWeekly"/>
-    <tableColumn id="5" name="Daily"/>
-    <tableColumn id="6" name="Daily (Weekdays)"/>
-    <tableColumn id="7" name="Monthly"/>
-    <tableColumn id="8" name="N/A"/>
-    <tableColumn id="9" name="Periodic"/>
-    <tableColumn id="10" name="Quarterly"/>
-    <tableColumn id="11" name="SemiAnnual"/>
-    <tableColumn id="12" name="Weekly"/>
-    <tableColumn id="13" name="Weekly (Sunday)"/>
-    <tableColumn id="14" name="Yearly"/>
+    <tableColumn id="2" name="Adhoc"/>
+    <tableColumn id="3" name="BiWeekly"/>
+    <tableColumn id="4" name="Daily"/>
+    <tableColumn id="5" name="Daily (Weekdays)"/>
+    <tableColumn id="6" name="Monthly"/>
+    <tableColumn id="7" name="Periodic"/>
+    <tableColumn id="8" name="Quarterly"/>
+    <tableColumn id="9" name="SemiAnnual"/>
+    <tableColumn id="10" name="Weekly"/>
+    <tableColumn id="11" name="Weekly (Sunday)"/>
+    <tableColumn id="12" name="Yearly"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="OLA" displayName="OLA" ref="A1:C14" headerRowCount="1">
+  <autoFilter ref="A1:C14"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="SN"/>
+    <tableColumn id="2" name="Frequency"/>
+    <tableColumn id="3" name="Days"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
 </table>
@@ -507,7 +518,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -558,14 +569,14 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Ad hoc</t>
+          <t>Adhoc</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>12.42</v>
+        <v>1.33</v>
       </c>
       <c r="E2" t="n">
-        <v>13.58</v>
+        <v>1.71</v>
       </c>
     </row>
     <row r="3">
@@ -577,14 +588,14 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Adhoc</t>
+          <t>BiWeekly</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>2.39</v>
+        <v>1.08</v>
       </c>
       <c r="E3" t="n">
-        <v>1.5</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="4">
@@ -596,14 +607,14 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>BiWeekly</t>
+          <t>Daily</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="E4" t="n">
-        <v>1.08</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="5">
@@ -615,14 +626,14 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Daily</t>
+          <t>Daily (Weekdays)</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1.01</v>
+        <v>13.21</v>
       </c>
       <c r="E5" t="n">
-        <v>0.79</v>
+        <v>13.33</v>
       </c>
     </row>
     <row r="6">
@@ -634,14 +645,14 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Daily (Weekdays)</t>
+          <t>Monthly</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>13.21</v>
+        <v>1.3</v>
       </c>
       <c r="E6" t="n">
-        <v>13.33</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="7">
@@ -653,14 +664,14 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Monthly</t>
+          <t>Periodic</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="E7" t="n">
-        <v>1.67</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="8">
@@ -672,14 +683,14 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Quarterly</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.3</v>
+        <v>3.92</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1</v>
+        <v>3.92</v>
       </c>
     </row>
     <row r="9">
@@ -691,14 +702,14 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Periodic</t>
+          <t>SemiAnnual</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1.5</v>
+        <v>4.62</v>
       </c>
       <c r="E9" t="n">
-        <v>0.54</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="10">
@@ -710,14 +721,14 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Quarterly</t>
+          <t>Weekly</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>3.92</v>
+        <v>0.88</v>
       </c>
       <c r="E10" t="n">
-        <v>3.92</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="11">
@@ -729,14 +740,14 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>SemiAnnual</t>
+          <t>Weekly (Sunday)</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>4.62</v>
+        <v>2.67</v>
       </c>
       <c r="E11" t="n">
-        <v>3.75</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="12">
@@ -748,51 +759,13 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Weekly</t>
+          <t>Yearly</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.88</v>
+        <v>3.92</v>
       </c>
       <c r="E12" t="n">
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="3" t="n">
-        <v>45627</v>
-      </c>
-      <c r="B13" s="3" t="n">
-        <v>45657</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Weekly (Sunday)</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.92</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="3" t="n">
-        <v>45627</v>
-      </c>
-      <c r="B14" s="3" t="n">
-        <v>45657</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Yearly</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="E14" t="n">
         <v>3.92</v>
       </c>
     </row>
@@ -810,7 +783,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E56"/>
+  <dimension ref="A1:G54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -823,6 +796,8 @@
     <col width="14" customWidth="1" min="3" max="3"/>
     <col width="17" customWidth="1" min="4" max="4"/>
     <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="22" customWidth="1" min="6" max="6"/>
+    <col width="23" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -851,6 +826,16 @@
           <t>TATMedian</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>OLAMetPer</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>OLANotMetPer</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -860,17 +845,23 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Daily</t>
+          <t>Weekly</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>728</v>
+        <v>1197</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2083</v>
+        <v>0.125</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0417</v>
+        <v>0.1667</v>
+      </c>
+      <c r="F2" t="n">
+        <v>100</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -881,17 +872,23 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Weekly</t>
+          <t>Daily</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1197</v>
+        <v>728</v>
       </c>
       <c r="D3" t="n">
-        <v>0.125</v>
+        <v>0.2083</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1667</v>
+        <v>0.0417</v>
+      </c>
+      <c r="F3" t="n">
+        <v>100</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -902,17 +899,23 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Adhoc</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>326</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0417</v>
+        <v>3.75</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0417</v>
+        <v>2.9583</v>
+      </c>
+      <c r="F4" t="n">
+        <v>91.10000000000001</v>
+      </c>
+      <c r="G4" t="n">
+        <v>8.9</v>
       </c>
     </row>
     <row r="5">
@@ -927,61 +930,79 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="D5" t="n">
-        <v>3.4583</v>
+        <v>3.4167</v>
       </c>
       <c r="E5" t="n">
-        <v>2.625</v>
+        <v>2.5833</v>
+      </c>
+      <c r="F5" t="n">
+        <v>70.56999999999999</v>
+      </c>
+      <c r="G5" t="n">
+        <v>29.43</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Amazon</t>
+          <t>BestBuy</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ad hoc</t>
+          <t>Monthly</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="D6" t="n">
-        <v>12.4167</v>
+        <v>2</v>
       </c>
       <c r="E6" t="n">
-        <v>13.5833</v>
+        <v>1.6667</v>
+      </c>
+      <c r="F6" t="n">
+        <v>89.73999999999999</v>
+      </c>
+      <c r="G6" t="n">
+        <v>10.26</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Amazon</t>
+          <t>CanadianTire</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Adhoc</t>
+          <t>Weekly</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>307</v>
+        <v>23</v>
       </c>
       <c r="D7" t="n">
-        <v>3.2083</v>
+        <v>1.5833</v>
       </c>
       <c r="E7" t="n">
-        <v>2.9583</v>
+        <v>1.25</v>
+      </c>
+      <c r="F7" t="n">
+        <v>100</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BestBuy</t>
+          <t>CanadianTire</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -990,13 +1011,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
-        <v>2</v>
+        <v>7.7083</v>
       </c>
       <c r="E8" t="n">
-        <v>1.6667</v>
+        <v>10</v>
+      </c>
+      <c r="F8" t="n">
+        <v>25</v>
+      </c>
+      <c r="G8" t="n">
+        <v>75</v>
       </c>
     </row>
     <row r="9">
@@ -1019,47 +1046,65 @@
       <c r="E9" t="n">
         <v>1.4583</v>
       </c>
+      <c r="F9" t="n">
+        <v>91.51000000000001</v>
+      </c>
+      <c r="G9" t="n">
+        <v>8.49</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>CanadianTire</t>
+          <t>Delhaize</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Weekly</t>
+          <t>Monthly</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>23</v>
+        <v>1283</v>
       </c>
       <c r="D10" t="n">
-        <v>1.5833</v>
+        <v>0.2917</v>
       </c>
       <c r="E10" t="n">
-        <v>1.25</v>
+        <v>0.2083</v>
+      </c>
+      <c r="F10" t="n">
+        <v>100</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>CanadianTire</t>
+          <t>Delhaize</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Monthly</t>
+          <t>Daily</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>565</v>
       </c>
       <c r="D11" t="n">
-        <v>7.7083</v>
+        <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>10</v>
+        <v>0.625</v>
+      </c>
+      <c r="F11" t="n">
+        <v>100</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1070,17 +1115,23 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Daily</t>
+          <t>Weekly</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>565</v>
+        <v>178</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>2.125</v>
       </c>
       <c r="E12" t="n">
-        <v>0.625</v>
+        <v>0.25</v>
+      </c>
+      <c r="F12" t="n">
+        <v>70.78999999999999</v>
+      </c>
+      <c r="G12" t="n">
+        <v>29.21</v>
       </c>
     </row>
     <row r="13">
@@ -1091,59 +1142,77 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Weekly</t>
+          <t>Adhoc</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>178</v>
+        <v>11</v>
       </c>
       <c r="D13" t="n">
-        <v>2.125</v>
+        <v>0.4167</v>
       </c>
       <c r="E13" t="n">
-        <v>0.25</v>
+        <v>0.3333</v>
+      </c>
+      <c r="F13" t="n">
+        <v>100</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Delhaize</t>
+          <t>HomeDepot</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Adhoc</t>
+          <t>Daily (Weekdays)</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>11</v>
+        <v>300</v>
       </c>
       <c r="D14" t="n">
-        <v>0.4167</v>
+        <v>13.2083</v>
       </c>
       <c r="E14" t="n">
-        <v>0.3333</v>
+        <v>13.3333</v>
+      </c>
+      <c r="F14" t="n">
+        <v>14.67</v>
+      </c>
+      <c r="G14" t="n">
+        <v>85.33</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Delhaize</t>
+          <t>HomeDepot</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Monthly</t>
+          <t>Weekly (Sunday)</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1283</v>
+        <v>120</v>
       </c>
       <c r="D15" t="n">
-        <v>0.2917</v>
+        <v>2.6667</v>
       </c>
       <c r="E15" t="n">
-        <v>0.2083</v>
+        <v>0.9167</v>
+      </c>
+      <c r="F15" t="n">
+        <v>75</v>
+      </c>
+      <c r="G15" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="16">
@@ -1154,59 +1223,77 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Daily (Weekdays)</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>300</v>
+        <v>231</v>
       </c>
       <c r="D16" t="n">
-        <v>13.2083</v>
+        <v>2.1667</v>
       </c>
       <c r="E16" t="n">
-        <v>13.3333</v>
+        <v>1.7083</v>
+      </c>
+      <c r="F16" t="n">
+        <v>93.94</v>
+      </c>
+      <c r="G16" t="n">
+        <v>6.06</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>HomeDepot</t>
+          <t>JCP</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Weekly (Sunday)</t>
+          <t>Daily</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="D17" t="n">
-        <v>2.6667</v>
+        <v>0.4583</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9167</v>
+        <v>0.5</v>
+      </c>
+      <c r="F17" t="n">
+        <v>100</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>HomeDepot</t>
+          <t>JCP</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Monthly</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>231</v>
+        <v>15</v>
       </c>
       <c r="D18" t="n">
-        <v>2.1667</v>
+        <v>7.5417</v>
       </c>
       <c r="E18" t="n">
-        <v>1.7083</v>
+        <v>8.083299999999999</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="19">
@@ -1217,59 +1304,77 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Daily</t>
+          <t>Weekly</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>40</v>
+        <v>107</v>
       </c>
       <c r="D19" t="n">
-        <v>0.4583</v>
+        <v>0.75</v>
       </c>
       <c r="E19" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
+      </c>
+      <c r="F19" t="n">
+        <v>93.45999999999999</v>
+      </c>
+      <c r="G19" t="n">
+        <v>6.54</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>JCP</t>
+          <t>Kroger</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Weekly</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>107</v>
+        <v>1984</v>
       </c>
       <c r="D20" t="n">
-        <v>0.75</v>
+        <v>0.0833</v>
       </c>
       <c r="E20" t="n">
-        <v>0.25</v>
+        <v>0.0833</v>
+      </c>
+      <c r="F20" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>JCP</t>
+          <t>Kroger</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Monthly</t>
+          <t>Weekly</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>15</v>
+        <v>68040</v>
       </c>
       <c r="D21" t="n">
-        <v>7.5417</v>
+        <v>0.7917</v>
       </c>
       <c r="E21" t="n">
-        <v>8.083299999999999</v>
+        <v>0.7083</v>
+      </c>
+      <c r="F21" t="n">
+        <v>99.33999999999999</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.66</v>
       </c>
     </row>
     <row r="22">
@@ -1292,6 +1397,12 @@
       <c r="E22" t="n">
         <v>0.8333</v>
       </c>
+      <c r="F22" t="n">
+        <v>98.92999999999999</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1.07</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1301,59 +1412,77 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Weekly</t>
+          <t>Periodic</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>68040</v>
+        <v>6216</v>
       </c>
       <c r="D23" t="n">
-        <v>0.7917</v>
+        <v>1.5</v>
       </c>
       <c r="E23" t="n">
-        <v>0.7083</v>
+        <v>0.5417</v>
+      </c>
+      <c r="F23" t="n">
+        <v>88.29000000000001</v>
+      </c>
+      <c r="G23" t="n">
+        <v>11.71</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Kroger</t>
+          <t>Loblaws</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Monthly</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1984</v>
+        <v>57</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0833</v>
+        <v>1.3333</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0833</v>
+        <v>0.9583</v>
+      </c>
+      <c r="F24" t="n">
+        <v>100</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Kroger</t>
+          <t>Loblaws</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Periodic</t>
+          <t>Daily</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>6216</v>
+        <v>97</v>
       </c>
       <c r="D25" t="n">
-        <v>1.5</v>
+        <v>0.6667</v>
       </c>
       <c r="E25" t="n">
-        <v>0.5417</v>
+        <v>0.6667</v>
+      </c>
+      <c r="F25" t="n">
+        <v>100</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1364,17 +1493,23 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Daily</t>
+          <t>Weekly</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>97</v>
+        <v>274</v>
       </c>
       <c r="D26" t="n">
-        <v>0.6667</v>
+        <v>2.625</v>
       </c>
       <c r="E26" t="n">
-        <v>0.6667</v>
+        <v>1.2917</v>
+      </c>
+      <c r="F26" t="n">
+        <v>73.72</v>
+      </c>
+      <c r="G26" t="n">
+        <v>26.28</v>
       </c>
     </row>
     <row r="27">
@@ -1385,143 +1520,185 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Weekly</t>
+          <t>Adhoc</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>274</v>
+        <v>1654</v>
       </c>
       <c r="D27" t="n">
-        <v>2.625</v>
+        <v>2.25</v>
       </c>
       <c r="E27" t="n">
-        <v>1.2917</v>
+        <v>2.5</v>
+      </c>
+      <c r="F27" t="n">
+        <v>100</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Loblaws</t>
+          <t>Lowes</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Adhoc</t>
+          <t>Monthly</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>1654</v>
+        <v>137</v>
       </c>
       <c r="D28" t="n">
-        <v>2.25</v>
+        <v>1.25</v>
       </c>
       <c r="E28" t="n">
-        <v>2.5</v>
+        <v>1.6667</v>
+      </c>
+      <c r="F28" t="n">
+        <v>100</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Loblaws</t>
+          <t>Lowes</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Monthly</t>
+          <t>Weekly</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>57</v>
+        <v>1728</v>
       </c>
       <c r="D29" t="n">
-        <v>1.3333</v>
+        <v>1.6667</v>
       </c>
       <c r="E29" t="n">
-        <v>0.9583</v>
+        <v>1.1667</v>
+      </c>
+      <c r="F29" t="n">
+        <v>100</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Lowes</t>
+          <t>PetSmart</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Weekly</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>1728</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
-        <v>1.6667</v>
+        <v>0.375</v>
       </c>
       <c r="E30" t="n">
-        <v>1.1667</v>
+        <v>0.125</v>
+      </c>
+      <c r="F30" t="n">
+        <v>100</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Lowes</t>
+          <t>PetSmart</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Monthly</t>
+          <t>Weekly</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>137</v>
+        <v>209</v>
       </c>
       <c r="D31" t="n">
-        <v>1.25</v>
+        <v>0.375</v>
       </c>
       <c r="E31" t="n">
-        <v>1.6667</v>
+        <v>0.2083</v>
+      </c>
+      <c r="F31" t="n">
+        <v>100</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>PetSmart</t>
+          <t>RiteAid</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Weekly</t>
+          <t>Monthly</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>209</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
-        <v>0.375</v>
+        <v>0.1667</v>
       </c>
       <c r="E32" t="n">
-        <v>0.2083</v>
+        <v>0.0417</v>
+      </c>
+      <c r="F32" t="n">
+        <v>100</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>PetSmart</t>
+          <t>RiteAid</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Quarterly</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>216</v>
       </c>
       <c r="D33" t="n">
-        <v>0.375</v>
+        <v>3.9167</v>
       </c>
       <c r="E33" t="n">
-        <v>0.125</v>
+        <v>3.9167</v>
+      </c>
+      <c r="F33" t="n">
+        <v>100</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1544,47 +1721,65 @@
       <c r="E34" t="n">
         <v>0.7083</v>
       </c>
+      <c r="F34" t="n">
+        <v>100</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>RiteAid</t>
+          <t>Wakefern</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Monthly</t>
+          <t>SemiAnnual</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>78</v>
       </c>
       <c r="D35" t="n">
-        <v>0.1667</v>
+        <v>4.625</v>
       </c>
       <c r="E35" t="n">
-        <v>0.0417</v>
+        <v>3.75</v>
+      </c>
+      <c r="F35" t="n">
+        <v>100</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>RiteAid</t>
+          <t>Wakefern</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Quarterly</t>
+          <t>Weekly</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>216</v>
+        <v>14</v>
       </c>
       <c r="D36" t="n">
-        <v>3.9167</v>
+        <v>1.4167</v>
       </c>
       <c r="E36" t="n">
-        <v>3.9167</v>
+        <v>1.4167</v>
+      </c>
+      <c r="F36" t="n">
+        <v>100</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1595,59 +1790,77 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Weekly</t>
+          <t>Monthly</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="D37" t="n">
-        <v>1.4167</v>
+        <v>5.4583</v>
       </c>
       <c r="E37" t="n">
-        <v>1.4167</v>
+        <v>5.4583</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Wakefern</t>
+          <t>Walgreens</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Monthly</t>
+          <t>Weekly</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>33</v>
+        <v>204</v>
       </c>
       <c r="D38" t="n">
-        <v>5.4583</v>
+        <v>14.9583</v>
       </c>
       <c r="E38" t="n">
-        <v>5.4583</v>
+        <v>4.25</v>
+      </c>
+      <c r="F38" t="n">
+        <v>49.51</v>
+      </c>
+      <c r="G38" t="n">
+        <v>50.49</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Wakefern</t>
+          <t>Walgreens</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>SemiAnnual</t>
+          <t>Monthly</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>78</v>
+        <v>336</v>
       </c>
       <c r="D39" t="n">
-        <v>4.625</v>
+        <v>1.75</v>
       </c>
       <c r="E39" t="n">
-        <v>3.75</v>
+        <v>1.0417</v>
+      </c>
+      <c r="F39" t="n">
+        <v>98.50999999999999</v>
+      </c>
+      <c r="G39" t="n">
+        <v>1.49</v>
       </c>
     </row>
     <row r="40">
@@ -1670,6 +1883,12 @@
       <c r="E40" t="n">
         <v>0.7917</v>
       </c>
+      <c r="F40" t="n">
+        <v>99.87</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1679,59 +1898,77 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Weekly</t>
+          <t>Adhoc</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>204</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
-        <v>14.9583</v>
+        <v>2.5417</v>
       </c>
       <c r="E41" t="n">
-        <v>4.25</v>
+        <v>0.5</v>
+      </c>
+      <c r="F41" t="n">
+        <v>66.67</v>
+      </c>
+      <c r="G41" t="n">
+        <v>33.33</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Walgreens</t>
+          <t>WalmartMX</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Monthly</t>
+          <t>Weekly</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>336</v>
+        <v>151</v>
       </c>
       <c r="D42" t="n">
-        <v>1.75</v>
+        <v>1.8333</v>
       </c>
       <c r="E42" t="n">
-        <v>1.0417</v>
+        <v>1.6667</v>
+      </c>
+      <c r="F42" t="n">
+        <v>94.69999999999999</v>
+      </c>
+      <c r="G42" t="n">
+        <v>5.3</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Walgreens</t>
+          <t>WalmartMX</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Adhoc</t>
+          <t>BiWeekly</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D43" t="n">
-        <v>2.5417</v>
+        <v>1.0833</v>
       </c>
       <c r="E43" t="n">
-        <v>0.5</v>
+        <v>1.0833</v>
+      </c>
+      <c r="F43" t="n">
+        <v>100</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1742,17 +1979,23 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Daily</t>
+          <t>Monthly</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>766</v>
+        <v>92</v>
       </c>
       <c r="D44" t="n">
-        <v>2</v>
+        <v>2.9583</v>
       </c>
       <c r="E44" t="n">
-        <v>1.9583</v>
+        <v>1.6667</v>
+      </c>
+      <c r="F44" t="n">
+        <v>73.91</v>
+      </c>
+      <c r="G44" t="n">
+        <v>26.09</v>
       </c>
     </row>
     <row r="45">
@@ -1763,44 +2006,56 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Weekly</t>
+          <t>Daily</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>151</v>
+        <v>766</v>
       </c>
       <c r="D45" t="n">
-        <v>1.8333</v>
+        <v>2</v>
       </c>
       <c r="E45" t="n">
-        <v>1.6667</v>
+        <v>1.9583</v>
+      </c>
+      <c r="F45" t="n">
+        <v>99.35000000000001</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.65</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>WalmartMX</t>
+          <t>Ingles</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>BiWeekly</t>
+          <t>Weekly</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
-        <v>1.0833</v>
+        <v>2.4167</v>
       </c>
       <c r="E46" t="n">
-        <v>1.0833</v>
+        <v>2.4167</v>
+      </c>
+      <c r="F46" t="n">
+        <v>50</v>
+      </c>
+      <c r="G46" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>WalmartMX</t>
+          <t>GiantEagle</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1809,19 +2064,25 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>92</v>
+        <v>406</v>
       </c>
       <c r="D47" t="n">
-        <v>2.9583</v>
+        <v>1.4583</v>
       </c>
       <c r="E47" t="n">
-        <v>1.6667</v>
+        <v>0.0833</v>
+      </c>
+      <c r="F47" t="n">
+        <v>57.64</v>
+      </c>
+      <c r="G47" t="n">
+        <v>42.36</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Ingles</t>
+          <t>GiantEagle</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1830,19 +2091,25 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D48" t="n">
-        <v>2.4167</v>
+        <v>1.2917</v>
       </c>
       <c r="E48" t="n">
-        <v>2.4167</v>
+        <v>0.0417</v>
+      </c>
+      <c r="F48" t="n">
+        <v>81.82000000000001</v>
+      </c>
+      <c r="G48" t="n">
+        <v>18.18</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>GiantEagle</t>
+          <t>DSG</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1851,76 +2118,100 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="D49" t="n">
-        <v>1.2917</v>
+        <v>2.0833</v>
       </c>
       <c r="E49" t="n">
-        <v>0.0417</v>
+        <v>1.0417</v>
+      </c>
+      <c r="F49" t="n">
+        <v>94.59</v>
+      </c>
+      <c r="G49" t="n">
+        <v>5.41</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>GiantEagle</t>
+          <t>DSG</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Monthly</t>
+          <t>Yearly</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>406</v>
+        <v>11</v>
       </c>
       <c r="D50" t="n">
-        <v>1.4583</v>
+        <v>3.9167</v>
       </c>
       <c r="E50" t="n">
-        <v>0.0833</v>
+        <v>3.9167</v>
+      </c>
+      <c r="F50" t="n">
+        <v>100</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>DSG</t>
+          <t>CVS</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Weekly</t>
+          <t>Daily</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="D51" t="n">
-        <v>2.0833</v>
+        <v>0.875</v>
       </c>
       <c r="E51" t="n">
-        <v>1.0417</v>
+        <v>0.875</v>
+      </c>
+      <c r="F51" t="n">
+        <v>100</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>DSG</t>
+          <t>CVS</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Yearly</t>
+          <t>Monthly</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
-        <v>3.9167</v>
+        <v>12.9583</v>
       </c>
       <c r="E52" t="n">
-        <v>3.9167</v>
+        <v>12.9583</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="53">
@@ -1931,23 +2222,29 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Daily</t>
+          <t>Weekly</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>110</v>
+        <v>234</v>
       </c>
       <c r="D53" t="n">
-        <v>0.875</v>
+        <v>4.2917</v>
       </c>
       <c r="E53" t="n">
-        <v>0.875</v>
+        <v>4.5833</v>
+      </c>
+      <c r="F53" t="n">
+        <v>23.93</v>
+      </c>
+      <c r="G53" t="n">
+        <v>76.07000000000001</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>CVS</t>
+          <t>Overwaitea</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1956,55 +2253,19 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>234</v>
+        <v>127</v>
       </c>
       <c r="D54" t="n">
-        <v>4.2917</v>
+        <v>6.9167</v>
       </c>
       <c r="E54" t="n">
-        <v>4.5833</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>CVS</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>Monthly</t>
-        </is>
-      </c>
-      <c r="C55" t="n">
-        <v>4</v>
-      </c>
-      <c r="D55" t="n">
-        <v>12.9583</v>
-      </c>
-      <c r="E55" t="n">
-        <v>12.9583</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>Overwaitea</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>Weekly</t>
-        </is>
-      </c>
-      <c r="C56" t="n">
-        <v>127</v>
-      </c>
-      <c r="D56" t="n">
-        <v>6.9167</v>
-      </c>
-      <c r="E56" t="n">
         <v>3.7083</v>
+      </c>
+      <c r="F54" t="n">
+        <v>53.54</v>
+      </c>
+      <c r="G54" t="n">
+        <v>46.46</v>
       </c>
     </row>
   </sheetData>
@@ -2021,7 +2282,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA21"/>
+  <dimension ref="A1:W21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
@@ -2031,32 +2292,28 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="17" customWidth="1" min="1" max="1"/>
-    <col width="18" customWidth="1" min="2" max="2"/>
-    <col width="20" customWidth="1" min="3" max="3"/>
-    <col width="17" customWidth="1" min="4" max="4"/>
-    <col width="19" customWidth="1" min="5" max="5"/>
-    <col width="20" customWidth="1" min="6" max="6"/>
-    <col width="22" customWidth="1" min="7" max="7"/>
-    <col width="17" customWidth="1" min="8" max="8"/>
-    <col width="19" customWidth="1" min="9" max="9"/>
-    <col width="28" customWidth="1" min="10" max="10"/>
-    <col width="30" customWidth="1" min="11" max="11"/>
-    <col width="19" customWidth="1" min="12" max="12"/>
-    <col width="21" customWidth="1" min="13" max="13"/>
-    <col width="15" customWidth="1" min="14" max="14"/>
-    <col width="17" customWidth="1" min="15" max="15"/>
-    <col width="20" customWidth="1" min="16" max="16"/>
-    <col width="22" customWidth="1" min="17" max="17"/>
-    <col width="21" customWidth="1" min="18" max="18"/>
-    <col width="23" customWidth="1" min="19" max="19"/>
-    <col width="22" customWidth="1" min="20" max="20"/>
-    <col width="24" customWidth="1" min="21" max="21"/>
+    <col width="17" customWidth="1" min="2" max="2"/>
+    <col width="19" customWidth="1" min="3" max="3"/>
+    <col width="20" customWidth="1" min="4" max="4"/>
+    <col width="22" customWidth="1" min="5" max="5"/>
+    <col width="17" customWidth="1" min="6" max="6"/>
+    <col width="19" customWidth="1" min="7" max="7"/>
+    <col width="28" customWidth="1" min="8" max="8"/>
+    <col width="30" customWidth="1" min="9" max="9"/>
+    <col width="19" customWidth="1" min="10" max="10"/>
+    <col width="21" customWidth="1" min="11" max="11"/>
+    <col width="20" customWidth="1" min="12" max="12"/>
+    <col width="22" customWidth="1" min="13" max="13"/>
+    <col width="21" customWidth="1" min="14" max="14"/>
+    <col width="23" customWidth="1" min="15" max="15"/>
+    <col width="22" customWidth="1" min="16" max="16"/>
+    <col width="24" customWidth="1" min="17" max="17"/>
+    <col width="18" customWidth="1" min="18" max="18"/>
+    <col width="20" customWidth="1" min="19" max="19"/>
+    <col width="27" customWidth="1" min="20" max="20"/>
+    <col width="29" customWidth="1" min="21" max="21"/>
     <col width="18" customWidth="1" min="22" max="22"/>
     <col width="20" customWidth="1" min="23" max="23"/>
-    <col width="27" customWidth="1" min="24" max="24"/>
-    <col width="29" customWidth="1" min="25" max="25"/>
-    <col width="18" customWidth="1" min="26" max="26"/>
-    <col width="20" customWidth="1" min="27" max="27"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2067,130 +2324,110 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Ad hoc (Mean)</t>
+          <t>Adhoc (Mean)</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Ad hoc (Median)</t>
+          <t>Adhoc (Median)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Adhoc (Mean)</t>
+          <t>BiWeekly (Mean)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Adhoc (Median)</t>
+          <t>BiWeekly (Median)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>BiWeekly (Mean)</t>
+          <t>Daily (Mean)</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>BiWeekly (Median)</t>
+          <t>Daily (Median)</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Daily (Mean)</t>
+          <t>Daily (Weekdays) (Mean)</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Daily (Median)</t>
+          <t>Daily (Weekdays) (Median)</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Daily (Weekdays) (Mean)</t>
+          <t>Monthly (Mean)</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Daily (Weekdays) (Median)</t>
+          <t>Monthly (Median)</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Monthly (Mean)</t>
+          <t>Periodic (Mean)</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>Monthly (Median)</t>
+          <t>Periodic (Median)</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>N/A (Mean)</t>
+          <t>Quarterly (Mean)</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>N/A (Median)</t>
+          <t>Quarterly (Median)</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>Periodic (Mean)</t>
+          <t>SemiAnnual (Mean)</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>Periodic (Median)</t>
+          <t>SemiAnnual (Median)</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>Quarterly (Mean)</t>
+          <t>Weekly (Mean)</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>Quarterly (Median)</t>
+          <t>Weekly (Median)</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>SemiAnnual (Mean)</t>
+          <t>Weekly (Sunday) (Mean)</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>SemiAnnual (Median)</t>
+          <t>Weekly (Sunday) (Median)</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>Weekly (Mean)</t>
+          <t>Yearly (Mean)</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>Weekly (Median)</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>Weekly (Sunday) (Mean)</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>Weekly (Sunday) (Median)</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>Yearly (Mean)</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>Yearly (Median)</t>
         </is>
@@ -2202,16 +2439,16 @@
           <t>Ahold</t>
         </is>
       </c>
-      <c r="H2" t="n">
+      <c r="F2" t="n">
         <v>0.2083</v>
       </c>
-      <c r="I2" t="n">
+      <c r="G2" t="n">
         <v>0.0417</v>
       </c>
-      <c r="V2" t="n">
+      <c r="R2" t="n">
         <v>0.125</v>
       </c>
-      <c r="W2" t="n">
+      <c r="S2" t="n">
         <v>0.1667</v>
       </c>
     </row>
@@ -2222,28 +2459,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>12.4167</v>
+        <v>3.75</v>
       </c>
       <c r="C3" t="n">
-        <v>13.5833</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.2083</v>
-      </c>
-      <c r="E3" t="n">
         <v>2.9583</v>
       </c>
-      <c r="L3" t="n">
-        <v>3.4583</v>
-      </c>
-      <c r="M3" t="n">
-        <v>2.625</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0.0417</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0.0417</v>
+      <c r="J3" t="n">
+        <v>3.4167</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2.5833</v>
       </c>
     </row>
     <row r="4">
@@ -2252,10 +2477,10 @@
           <t>BestBuy</t>
         </is>
       </c>
-      <c r="L4" t="n">
+      <c r="J4" t="n">
         <v>2</v>
       </c>
-      <c r="M4" t="n">
+      <c r="K4" t="n">
         <v>1.6667</v>
       </c>
     </row>
@@ -2265,22 +2490,22 @@
           <t>CVS</t>
         </is>
       </c>
-      <c r="H5" t="n">
+      <c r="F5" t="n">
         <v>0.875</v>
       </c>
-      <c r="I5" t="n">
+      <c r="G5" t="n">
         <v>0.875</v>
       </c>
-      <c r="L5" t="n">
+      <c r="J5" t="n">
         <v>12.9583</v>
       </c>
-      <c r="M5" t="n">
+      <c r="K5" t="n">
         <v>12.9583</v>
       </c>
-      <c r="V5" t="n">
+      <c r="R5" t="n">
         <v>4.2917</v>
       </c>
-      <c r="W5" t="n">
+      <c r="S5" t="n">
         <v>4.5833</v>
       </c>
     </row>
@@ -2290,22 +2515,22 @@
           <t>CanadianTire</t>
         </is>
       </c>
-      <c r="H6" t="n">
+      <c r="F6" t="n">
         <v>1.8333</v>
       </c>
-      <c r="I6" t="n">
+      <c r="G6" t="n">
         <v>1.4583</v>
       </c>
-      <c r="L6" t="n">
+      <c r="J6" t="n">
         <v>7.7083</v>
       </c>
-      <c r="M6" t="n">
+      <c r="K6" t="n">
         <v>10</v>
       </c>
-      <c r="V6" t="n">
+      <c r="R6" t="n">
         <v>1.5833</v>
       </c>
-      <c r="W6" t="n">
+      <c r="S6" t="n">
         <v>1.25</v>
       </c>
     </row>
@@ -2315,16 +2540,16 @@
           <t>DSG</t>
         </is>
       </c>
+      <c r="R7" t="n">
+        <v>2.0833</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.0417</v>
+      </c>
       <c r="V7" t="n">
-        <v>2.0833</v>
+        <v>3.9167</v>
       </c>
       <c r="W7" t="n">
-        <v>1.0417</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>3.9167</v>
-      </c>
-      <c r="AA7" t="n">
         <v>3.9167</v>
       </c>
     </row>
@@ -2334,28 +2559,28 @@
           <t>Delhaize</t>
         </is>
       </c>
-      <c r="D8" t="n">
+      <c r="B8" t="n">
         <v>0.4167</v>
       </c>
-      <c r="E8" t="n">
+      <c r="C8" t="n">
         <v>0.3333</v>
       </c>
-      <c r="H8" t="n">
+      <c r="F8" t="n">
         <v>1</v>
       </c>
-      <c r="I8" t="n">
+      <c r="G8" t="n">
         <v>0.625</v>
       </c>
-      <c r="L8" t="n">
+      <c r="J8" t="n">
         <v>0.2917</v>
       </c>
-      <c r="M8" t="n">
+      <c r="K8" t="n">
         <v>0.2083</v>
       </c>
-      <c r="V8" t="n">
+      <c r="R8" t="n">
         <v>2.125</v>
       </c>
-      <c r="W8" t="n">
+      <c r="S8" t="n">
         <v>0.25</v>
       </c>
     </row>
@@ -2365,16 +2590,16 @@
           <t>GiantEagle</t>
         </is>
       </c>
-      <c r="L9" t="n">
+      <c r="J9" t="n">
         <v>1.4583</v>
       </c>
-      <c r="M9" t="n">
+      <c r="K9" t="n">
         <v>0.0833</v>
       </c>
-      <c r="V9" t="n">
+      <c r="R9" t="n">
         <v>1.2917</v>
       </c>
-      <c r="W9" t="n">
+      <c r="S9" t="n">
         <v>0.0417</v>
       </c>
     </row>
@@ -2384,22 +2609,22 @@
           <t>HomeDepot</t>
         </is>
       </c>
-      <c r="J10" t="n">
+      <c r="B10" t="n">
+        <v>2.1667</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.7083</v>
+      </c>
+      <c r="H10" t="n">
         <v>13.2083</v>
       </c>
-      <c r="K10" t="n">
+      <c r="I10" t="n">
         <v>13.3333</v>
       </c>
-      <c r="N10" t="n">
-        <v>2.1667</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.7083</v>
-      </c>
-      <c r="X10" t="n">
+      <c r="T10" t="n">
         <v>2.6667</v>
       </c>
-      <c r="Y10" t="n">
+      <c r="U10" t="n">
         <v>0.9167</v>
       </c>
     </row>
@@ -2409,10 +2634,10 @@
           <t>Ingles</t>
         </is>
       </c>
-      <c r="V11" t="n">
+      <c r="R11" t="n">
         <v>2.4167</v>
       </c>
-      <c r="W11" t="n">
+      <c r="S11" t="n">
         <v>2.4167</v>
       </c>
     </row>
@@ -2422,22 +2647,22 @@
           <t>JCP</t>
         </is>
       </c>
-      <c r="H12" t="n">
+      <c r="F12" t="n">
         <v>0.4583</v>
       </c>
-      <c r="I12" t="n">
+      <c r="G12" t="n">
         <v>0.5</v>
       </c>
-      <c r="L12" t="n">
+      <c r="J12" t="n">
         <v>7.5417</v>
       </c>
-      <c r="M12" t="n">
+      <c r="K12" t="n">
         <v>8.083299999999999</v>
       </c>
-      <c r="V12" t="n">
+      <c r="R12" t="n">
         <v>0.75</v>
       </c>
-      <c r="W12" t="n">
+      <c r="S12" t="n">
         <v>0.25</v>
       </c>
     </row>
@@ -2447,28 +2672,28 @@
           <t>Kroger</t>
         </is>
       </c>
-      <c r="H13" t="n">
+      <c r="B13" t="n">
+        <v>0.0833</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.0833</v>
+      </c>
+      <c r="F13" t="n">
         <v>1</v>
       </c>
-      <c r="I13" t="n">
+      <c r="G13" t="n">
         <v>0.8333</v>
       </c>
-      <c r="N13" t="n">
-        <v>0.0833</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0.0833</v>
-      </c>
-      <c r="P13" t="n">
+      <c r="L13" t="n">
         <v>1.5</v>
       </c>
-      <c r="Q13" t="n">
+      <c r="M13" t="n">
         <v>0.5417</v>
       </c>
-      <c r="V13" t="n">
+      <c r="R13" t="n">
         <v>0.7917</v>
       </c>
-      <c r="W13" t="n">
+      <c r="S13" t="n">
         <v>0.7083</v>
       </c>
     </row>
@@ -2478,28 +2703,28 @@
           <t>Loblaws</t>
         </is>
       </c>
-      <c r="D14" t="n">
+      <c r="B14" t="n">
         <v>2.25</v>
       </c>
-      <c r="E14" t="n">
+      <c r="C14" t="n">
         <v>2.5</v>
       </c>
-      <c r="H14" t="n">
+      <c r="F14" t="n">
         <v>0.6667</v>
       </c>
-      <c r="I14" t="n">
+      <c r="G14" t="n">
         <v>0.6667</v>
       </c>
-      <c r="L14" t="n">
+      <c r="J14" t="n">
         <v>1.3333</v>
       </c>
-      <c r="M14" t="n">
+      <c r="K14" t="n">
         <v>0.9583</v>
       </c>
-      <c r="V14" t="n">
+      <c r="R14" t="n">
         <v>2.625</v>
       </c>
-      <c r="W14" t="n">
+      <c r="S14" t="n">
         <v>1.2917</v>
       </c>
     </row>
@@ -2509,16 +2734,16 @@
           <t>Lowes</t>
         </is>
       </c>
-      <c r="L15" t="n">
+      <c r="J15" t="n">
         <v>1.25</v>
       </c>
-      <c r="M15" t="n">
+      <c r="K15" t="n">
         <v>1.6667</v>
       </c>
-      <c r="V15" t="n">
+      <c r="R15" t="n">
         <v>1.6667</v>
       </c>
-      <c r="W15" t="n">
+      <c r="S15" t="n">
         <v>1.1667</v>
       </c>
     </row>
@@ -2528,10 +2753,10 @@
           <t>Overwaitea</t>
         </is>
       </c>
-      <c r="V16" t="n">
+      <c r="R16" t="n">
         <v>6.9167</v>
       </c>
-      <c r="W16" t="n">
+      <c r="S16" t="n">
         <v>3.7083</v>
       </c>
     </row>
@@ -2541,16 +2766,16 @@
           <t>PetSmart</t>
         </is>
       </c>
-      <c r="N17" t="n">
+      <c r="B17" t="n">
         <v>0.375</v>
       </c>
-      <c r="O17" t="n">
+      <c r="C17" t="n">
         <v>0.125</v>
       </c>
-      <c r="V17" t="n">
+      <c r="R17" t="n">
         <v>0.375</v>
       </c>
-      <c r="W17" t="n">
+      <c r="S17" t="n">
         <v>0.2083</v>
       </c>
     </row>
@@ -2560,22 +2785,22 @@
           <t>RiteAid</t>
         </is>
       </c>
-      <c r="L18" t="n">
+      <c r="J18" t="n">
         <v>0.1667</v>
       </c>
-      <c r="M18" t="n">
+      <c r="K18" t="n">
         <v>0.0417</v>
       </c>
+      <c r="N18" t="n">
+        <v>3.9167</v>
+      </c>
+      <c r="O18" t="n">
+        <v>3.9167</v>
+      </c>
       <c r="R18" t="n">
-        <v>3.9167</v>
+        <v>0.7083</v>
       </c>
       <c r="S18" t="n">
-        <v>3.9167</v>
-      </c>
-      <c r="V18" t="n">
-        <v>0.7083</v>
-      </c>
-      <c r="W18" t="n">
         <v>0.7083</v>
       </c>
     </row>
@@ -2585,22 +2810,22 @@
           <t>Wakefern</t>
         </is>
       </c>
-      <c r="L19" t="n">
+      <c r="J19" t="n">
         <v>5.4583</v>
       </c>
-      <c r="M19" t="n">
+      <c r="K19" t="n">
         <v>5.4583</v>
       </c>
-      <c r="T19" t="n">
+      <c r="P19" t="n">
         <v>4.625</v>
       </c>
-      <c r="U19" t="n">
+      <c r="Q19" t="n">
         <v>3.75</v>
       </c>
-      <c r="V19" t="n">
+      <c r="R19" t="n">
         <v>1.4167</v>
       </c>
-      <c r="W19" t="n">
+      <c r="S19" t="n">
         <v>1.4167</v>
       </c>
     </row>
@@ -2610,28 +2835,28 @@
           <t>Walgreens</t>
         </is>
       </c>
-      <c r="D20" t="n">
+      <c r="B20" t="n">
         <v>2.5417</v>
       </c>
-      <c r="E20" t="n">
+      <c r="C20" t="n">
         <v>0.5</v>
       </c>
-      <c r="H20" t="n">
+      <c r="F20" t="n">
         <v>0.7083</v>
       </c>
-      <c r="I20" t="n">
+      <c r="G20" t="n">
         <v>0.7917</v>
       </c>
-      <c r="L20" t="n">
+      <c r="J20" t="n">
         <v>1.75</v>
       </c>
-      <c r="M20" t="n">
+      <c r="K20" t="n">
         <v>1.0417</v>
       </c>
-      <c r="V20" t="n">
+      <c r="R20" t="n">
         <v>14.9583</v>
       </c>
-      <c r="W20" t="n">
+      <c r="S20" t="n">
         <v>4.25</v>
       </c>
     </row>
@@ -2641,28 +2866,28 @@
           <t>WalmartMX</t>
         </is>
       </c>
+      <c r="D21" t="n">
+        <v>1.0833</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1.0833</v>
+      </c>
       <c r="F21" t="n">
-        <v>1.0833</v>
+        <v>2</v>
       </c>
       <c r="G21" t="n">
-        <v>1.0833</v>
-      </c>
-      <c r="H21" t="n">
-        <v>2</v>
-      </c>
-      <c r="I21" t="n">
         <v>1.9583</v>
       </c>
-      <c r="L21" t="n">
+      <c r="J21" t="n">
         <v>2.9583</v>
       </c>
-      <c r="M21" t="n">
+      <c r="K21" t="n">
         <v>1.6667</v>
       </c>
-      <c r="V21" t="n">
+      <c r="R21" t="n">
         <v>1.8333</v>
       </c>
-      <c r="W21" t="n">
+      <c r="S21" t="n">
         <v>1.6667</v>
       </c>
     </row>
@@ -2677,7 +2902,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N21"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2686,19 +2911,17 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="17" customWidth="1" min="1" max="1"/>
-    <col width="12" customWidth="1" min="2" max="2"/>
-    <col width="11" customWidth="1" min="3" max="3"/>
-    <col width="13" customWidth="1" min="4" max="4"/>
-    <col width="11" customWidth="1" min="5" max="5"/>
-    <col width="21" customWidth="1" min="6" max="6"/>
-    <col width="12" customWidth="1" min="7" max="7"/>
-    <col width="11" customWidth="1" min="8" max="8"/>
-    <col width="13" customWidth="1" min="9" max="9"/>
-    <col width="14" customWidth="1" min="10" max="10"/>
-    <col width="15" customWidth="1" min="11" max="11"/>
-    <col width="12" customWidth="1" min="12" max="12"/>
-    <col width="20" customWidth="1" min="13" max="13"/>
-    <col width="11" customWidth="1" min="14" max="14"/>
+    <col width="11" customWidth="1" min="2" max="2"/>
+    <col width="13" customWidth="1" min="3" max="3"/>
+    <col width="11" customWidth="1" min="4" max="4"/>
+    <col width="21" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="6" max="6"/>
+    <col width="13" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="15" customWidth="1" min="9" max="9"/>
+    <col width="12" customWidth="1" min="10" max="10"/>
+    <col width="20" customWidth="1" min="11" max="11"/>
+    <col width="11" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2709,65 +2932,55 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Ad hoc</t>
+          <t>Adhoc</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Adhoc</t>
+          <t>BiWeekly</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>BiWeekly</t>
+          <t>Daily</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Daily</t>
+          <t>Daily (Weekdays)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Daily (Weekdays)</t>
+          <t>Monthly</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Monthly</t>
+          <t>Periodic</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Quarterly</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Periodic</t>
+          <t>SemiAnnual</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Quarterly</t>
+          <t>Weekly</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>SemiAnnual</t>
+          <t>Weekly (Sunday)</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Weekly</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Weekly (Sunday)</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Yearly</t>
         </is>
@@ -2779,10 +2992,10 @@
           <t>Ahold</t>
         </is>
       </c>
-      <c r="E2" t="n">
+      <c r="D2" t="n">
         <v>0.2083</v>
       </c>
-      <c r="L2" t="n">
+      <c r="J2" t="n">
         <v>0.125</v>
       </c>
     </row>
@@ -2793,16 +3006,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>12.4167</v>
-      </c>
-      <c r="C3" t="n">
-        <v>3.2083</v>
-      </c>
-      <c r="G3" t="n">
-        <v>3.4583</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.0417</v>
+        <v>3.75</v>
+      </c>
+      <c r="F3" t="n">
+        <v>3.4167</v>
       </c>
     </row>
     <row r="4">
@@ -2811,7 +3018,7 @@
           <t>BestBuy</t>
         </is>
       </c>
-      <c r="G4" t="n">
+      <c r="F4" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2821,13 +3028,13 @@
           <t>CVS</t>
         </is>
       </c>
-      <c r="E5" t="n">
+      <c r="D5" t="n">
         <v>0.875</v>
       </c>
-      <c r="G5" t="n">
+      <c r="F5" t="n">
         <v>12.9583</v>
       </c>
-      <c r="L5" t="n">
+      <c r="J5" t="n">
         <v>4.2917</v>
       </c>
     </row>
@@ -2837,13 +3044,13 @@
           <t>CanadianTire</t>
         </is>
       </c>
-      <c r="E6" t="n">
+      <c r="D6" t="n">
         <v>1.8333</v>
       </c>
-      <c r="G6" t="n">
+      <c r="F6" t="n">
         <v>7.7083</v>
       </c>
-      <c r="L6" t="n">
+      <c r="J6" t="n">
         <v>1.5833</v>
       </c>
     </row>
@@ -2853,10 +3060,10 @@
           <t>DSG</t>
         </is>
       </c>
+      <c r="J7" t="n">
+        <v>2.0833</v>
+      </c>
       <c r="L7" t="n">
-        <v>2.0833</v>
-      </c>
-      <c r="N7" t="n">
         <v>3.9167</v>
       </c>
     </row>
@@ -2866,16 +3073,16 @@
           <t>Delhaize</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="B8" t="n">
         <v>0.4167</v>
       </c>
-      <c r="E8" t="n">
+      <c r="D8" t="n">
         <v>1</v>
       </c>
-      <c r="G8" t="n">
+      <c r="F8" t="n">
         <v>0.2917</v>
       </c>
-      <c r="L8" t="n">
+      <c r="J8" t="n">
         <v>2.125</v>
       </c>
     </row>
@@ -2885,10 +3092,10 @@
           <t>GiantEagle</t>
         </is>
       </c>
-      <c r="G9" t="n">
+      <c r="F9" t="n">
         <v>1.4583</v>
       </c>
-      <c r="L9" t="n">
+      <c r="J9" t="n">
         <v>1.2917</v>
       </c>
     </row>
@@ -2898,13 +3105,13 @@
           <t>HomeDepot</t>
         </is>
       </c>
-      <c r="F10" t="n">
+      <c r="B10" t="n">
+        <v>2.1667</v>
+      </c>
+      <c r="E10" t="n">
         <v>13.2083</v>
       </c>
-      <c r="H10" t="n">
-        <v>2.1667</v>
-      </c>
-      <c r="M10" t="n">
+      <c r="K10" t="n">
         <v>2.6667</v>
       </c>
     </row>
@@ -2914,7 +3121,7 @@
           <t>Ingles</t>
         </is>
       </c>
-      <c r="L11" t="n">
+      <c r="J11" t="n">
         <v>2.4167</v>
       </c>
     </row>
@@ -2924,13 +3131,13 @@
           <t>JCP</t>
         </is>
       </c>
-      <c r="E12" t="n">
+      <c r="D12" t="n">
         <v>0.4583</v>
       </c>
-      <c r="G12" t="n">
+      <c r="F12" t="n">
         <v>7.5417</v>
       </c>
-      <c r="L12" t="n">
+      <c r="J12" t="n">
         <v>0.75</v>
       </c>
     </row>
@@ -2940,16 +3147,16 @@
           <t>Kroger</t>
         </is>
       </c>
-      <c r="E13" t="n">
+      <c r="B13" t="n">
+        <v>0.0833</v>
+      </c>
+      <c r="D13" t="n">
         <v>1</v>
       </c>
-      <c r="H13" t="n">
-        <v>0.0833</v>
-      </c>
-      <c r="I13" t="n">
+      <c r="G13" t="n">
         <v>1.5</v>
       </c>
-      <c r="L13" t="n">
+      <c r="J13" t="n">
         <v>0.7917</v>
       </c>
     </row>
@@ -2959,16 +3166,16 @@
           <t>Loblaws</t>
         </is>
       </c>
-      <c r="C14" t="n">
+      <c r="B14" t="n">
         <v>2.25</v>
       </c>
-      <c r="E14" t="n">
+      <c r="D14" t="n">
         <v>0.6667</v>
       </c>
-      <c r="G14" t="n">
+      <c r="F14" t="n">
         <v>1.3333</v>
       </c>
-      <c r="L14" t="n">
+      <c r="J14" t="n">
         <v>2.625</v>
       </c>
     </row>
@@ -2978,10 +3185,10 @@
           <t>Lowes</t>
         </is>
       </c>
-      <c r="G15" t="n">
+      <c r="F15" t="n">
         <v>1.25</v>
       </c>
-      <c r="L15" t="n">
+      <c r="J15" t="n">
         <v>1.6667</v>
       </c>
     </row>
@@ -2991,7 +3198,7 @@
           <t>Overwaitea</t>
         </is>
       </c>
-      <c r="L16" t="n">
+      <c r="J16" t="n">
         <v>6.9167</v>
       </c>
     </row>
@@ -3001,10 +3208,10 @@
           <t>PetSmart</t>
         </is>
       </c>
-      <c r="H17" t="n">
+      <c r="B17" t="n">
         <v>0.375</v>
       </c>
-      <c r="L17" t="n">
+      <c r="J17" t="n">
         <v>0.375</v>
       </c>
     </row>
@@ -3014,13 +3221,13 @@
           <t>RiteAid</t>
         </is>
       </c>
-      <c r="G18" t="n">
+      <c r="F18" t="n">
         <v>0.1667</v>
       </c>
+      <c r="H18" t="n">
+        <v>3.9167</v>
+      </c>
       <c r="J18" t="n">
-        <v>3.9167</v>
-      </c>
-      <c r="L18" t="n">
         <v>0.7083</v>
       </c>
     </row>
@@ -3030,13 +3237,13 @@
           <t>Wakefern</t>
         </is>
       </c>
-      <c r="G19" t="n">
+      <c r="F19" t="n">
         <v>5.4583</v>
       </c>
-      <c r="K19" t="n">
+      <c r="I19" t="n">
         <v>4.625</v>
       </c>
-      <c r="L19" t="n">
+      <c r="J19" t="n">
         <v>1.4167</v>
       </c>
     </row>
@@ -3046,16 +3253,16 @@
           <t>Walgreens</t>
         </is>
       </c>
-      <c r="C20" t="n">
+      <c r="B20" t="n">
         <v>2.5417</v>
       </c>
-      <c r="E20" t="n">
+      <c r="D20" t="n">
         <v>0.7083</v>
       </c>
-      <c r="G20" t="n">
+      <c r="F20" t="n">
         <v>1.75</v>
       </c>
-      <c r="L20" t="n">
+      <c r="J20" t="n">
         <v>14.9583</v>
       </c>
     </row>
@@ -3065,16 +3272,16 @@
           <t>WalmartMX</t>
         </is>
       </c>
+      <c r="C21" t="n">
+        <v>1.0833</v>
+      </c>
       <c r="D21" t="n">
-        <v>1.0833</v>
-      </c>
-      <c r="E21" t="n">
         <v>2</v>
       </c>
-      <c r="G21" t="n">
+      <c r="F21" t="n">
         <v>2.9583</v>
       </c>
-      <c r="L21" t="n">
+      <c r="J21" t="n">
         <v>1.8333</v>
       </c>
     </row>
@@ -3092,7 +3299,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N21"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3101,19 +3308,17 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="17" customWidth="1" min="1" max="1"/>
-    <col width="12" customWidth="1" min="2" max="2"/>
-    <col width="11" customWidth="1" min="3" max="3"/>
-    <col width="13" customWidth="1" min="4" max="4"/>
-    <col width="11" customWidth="1" min="5" max="5"/>
-    <col width="21" customWidth="1" min="6" max="6"/>
-    <col width="12" customWidth="1" min="7" max="7"/>
-    <col width="11" customWidth="1" min="8" max="8"/>
-    <col width="13" customWidth="1" min="9" max="9"/>
-    <col width="14" customWidth="1" min="10" max="10"/>
-    <col width="15" customWidth="1" min="11" max="11"/>
+    <col width="11" customWidth="1" min="2" max="2"/>
+    <col width="13" customWidth="1" min="3" max="3"/>
+    <col width="11" customWidth="1" min="4" max="4"/>
+    <col width="21" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="6" max="6"/>
+    <col width="13" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="15" customWidth="1" min="9" max="9"/>
+    <col width="11" customWidth="1" min="10" max="10"/>
+    <col width="20" customWidth="1" min="11" max="11"/>
     <col width="11" customWidth="1" min="12" max="12"/>
-    <col width="20" customWidth="1" min="13" max="13"/>
-    <col width="11" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3124,65 +3329,55 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Ad hoc</t>
+          <t>Adhoc</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Adhoc</t>
+          <t>BiWeekly</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>BiWeekly</t>
+          <t>Daily</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Daily</t>
+          <t>Daily (Weekdays)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Daily (Weekdays)</t>
+          <t>Monthly</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Monthly</t>
+          <t>Periodic</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Quarterly</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Periodic</t>
+          <t>SemiAnnual</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Quarterly</t>
+          <t>Weekly</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>SemiAnnual</t>
+          <t>Weekly (Sunday)</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Weekly</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Weekly (Sunday)</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Yearly</t>
         </is>
@@ -3194,10 +3389,10 @@
           <t>Ahold</t>
         </is>
       </c>
-      <c r="E2" t="n">
+      <c r="D2" t="n">
         <v>0.0417</v>
       </c>
-      <c r="L2" t="n">
+      <c r="J2" t="n">
         <v>0.1667</v>
       </c>
     </row>
@@ -3208,16 +3403,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13.5833</v>
-      </c>
-      <c r="C3" t="n">
         <v>2.9583</v>
       </c>
-      <c r="G3" t="n">
-        <v>2.625</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.0417</v>
+      <c r="F3" t="n">
+        <v>2.5833</v>
       </c>
     </row>
     <row r="4">
@@ -3226,7 +3415,7 @@
           <t>BestBuy</t>
         </is>
       </c>
-      <c r="G4" t="n">
+      <c r="F4" t="n">
         <v>1.6667</v>
       </c>
     </row>
@@ -3236,13 +3425,13 @@
           <t>CVS</t>
         </is>
       </c>
-      <c r="E5" t="n">
+      <c r="D5" t="n">
         <v>0.875</v>
       </c>
-      <c r="G5" t="n">
+      <c r="F5" t="n">
         <v>12.9583</v>
       </c>
-      <c r="L5" t="n">
+      <c r="J5" t="n">
         <v>4.5833</v>
       </c>
     </row>
@@ -3252,13 +3441,13 @@
           <t>CanadianTire</t>
         </is>
       </c>
-      <c r="E6" t="n">
+      <c r="D6" t="n">
         <v>1.4583</v>
       </c>
-      <c r="G6" t="n">
+      <c r="F6" t="n">
         <v>10</v>
       </c>
-      <c r="L6" t="n">
+      <c r="J6" t="n">
         <v>1.25</v>
       </c>
     </row>
@@ -3268,10 +3457,10 @@
           <t>DSG</t>
         </is>
       </c>
+      <c r="J7" t="n">
+        <v>1.0417</v>
+      </c>
       <c r="L7" t="n">
-        <v>1.0417</v>
-      </c>
-      <c r="N7" t="n">
         <v>3.9167</v>
       </c>
     </row>
@@ -3281,16 +3470,16 @@
           <t>Delhaize</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="B8" t="n">
         <v>0.3333</v>
       </c>
-      <c r="E8" t="n">
+      <c r="D8" t="n">
         <v>0.625</v>
       </c>
-      <c r="G8" t="n">
+      <c r="F8" t="n">
         <v>0.2083</v>
       </c>
-      <c r="L8" t="n">
+      <c r="J8" t="n">
         <v>0.25</v>
       </c>
     </row>
@@ -3300,10 +3489,10 @@
           <t>GiantEagle</t>
         </is>
       </c>
-      <c r="G9" t="n">
+      <c r="F9" t="n">
         <v>0.0833</v>
       </c>
-      <c r="L9" t="n">
+      <c r="J9" t="n">
         <v>0.0417</v>
       </c>
     </row>
@@ -3313,13 +3502,13 @@
           <t>HomeDepot</t>
         </is>
       </c>
-      <c r="F10" t="n">
+      <c r="B10" t="n">
+        <v>1.7083</v>
+      </c>
+      <c r="E10" t="n">
         <v>13.3333</v>
       </c>
-      <c r="H10" t="n">
-        <v>1.7083</v>
-      </c>
-      <c r="M10" t="n">
+      <c r="K10" t="n">
         <v>0.9167</v>
       </c>
     </row>
@@ -3329,7 +3518,7 @@
           <t>Ingles</t>
         </is>
       </c>
-      <c r="L11" t="n">
+      <c r="J11" t="n">
         <v>2.4167</v>
       </c>
     </row>
@@ -3339,13 +3528,13 @@
           <t>JCP</t>
         </is>
       </c>
-      <c r="E12" t="n">
+      <c r="D12" t="n">
         <v>0.5</v>
       </c>
-      <c r="G12" t="n">
+      <c r="F12" t="n">
         <v>8.083299999999999</v>
       </c>
-      <c r="L12" t="n">
+      <c r="J12" t="n">
         <v>0.25</v>
       </c>
     </row>
@@ -3355,16 +3544,16 @@
           <t>Kroger</t>
         </is>
       </c>
-      <c r="E13" t="n">
+      <c r="B13" t="n">
+        <v>0.0833</v>
+      </c>
+      <c r="D13" t="n">
         <v>0.8333</v>
       </c>
-      <c r="H13" t="n">
-        <v>0.0833</v>
-      </c>
-      <c r="I13" t="n">
+      <c r="G13" t="n">
         <v>0.5417</v>
       </c>
-      <c r="L13" t="n">
+      <c r="J13" t="n">
         <v>0.7083</v>
       </c>
     </row>
@@ -3374,16 +3563,16 @@
           <t>Loblaws</t>
         </is>
       </c>
-      <c r="C14" t="n">
+      <c r="B14" t="n">
         <v>2.5</v>
       </c>
-      <c r="E14" t="n">
+      <c r="D14" t="n">
         <v>0.6667</v>
       </c>
-      <c r="G14" t="n">
+      <c r="F14" t="n">
         <v>0.9583</v>
       </c>
-      <c r="L14" t="n">
+      <c r="J14" t="n">
         <v>1.2917</v>
       </c>
     </row>
@@ -3393,10 +3582,10 @@
           <t>Lowes</t>
         </is>
       </c>
-      <c r="G15" t="n">
+      <c r="F15" t="n">
         <v>1.6667</v>
       </c>
-      <c r="L15" t="n">
+      <c r="J15" t="n">
         <v>1.1667</v>
       </c>
     </row>
@@ -3406,7 +3595,7 @@
           <t>Overwaitea</t>
         </is>
       </c>
-      <c r="L16" t="n">
+      <c r="J16" t="n">
         <v>3.7083</v>
       </c>
     </row>
@@ -3416,10 +3605,10 @@
           <t>PetSmart</t>
         </is>
       </c>
-      <c r="H17" t="n">
+      <c r="B17" t="n">
         <v>0.125</v>
       </c>
-      <c r="L17" t="n">
+      <c r="J17" t="n">
         <v>0.2083</v>
       </c>
     </row>
@@ -3429,13 +3618,13 @@
           <t>RiteAid</t>
         </is>
       </c>
-      <c r="G18" t="n">
+      <c r="F18" t="n">
         <v>0.0417</v>
       </c>
+      <c r="H18" t="n">
+        <v>3.9167</v>
+      </c>
       <c r="J18" t="n">
-        <v>3.9167</v>
-      </c>
-      <c r="L18" t="n">
         <v>0.7083</v>
       </c>
     </row>
@@ -3445,13 +3634,13 @@
           <t>Wakefern</t>
         </is>
       </c>
-      <c r="G19" t="n">
+      <c r="F19" t="n">
         <v>5.4583</v>
       </c>
-      <c r="K19" t="n">
+      <c r="I19" t="n">
         <v>3.75</v>
       </c>
-      <c r="L19" t="n">
+      <c r="J19" t="n">
         <v>1.4167</v>
       </c>
     </row>
@@ -3461,16 +3650,16 @@
           <t>Walgreens</t>
         </is>
       </c>
-      <c r="C20" t="n">
+      <c r="B20" t="n">
         <v>0.5</v>
       </c>
-      <c r="E20" t="n">
+      <c r="D20" t="n">
         <v>0.7917</v>
       </c>
-      <c r="G20" t="n">
+      <c r="F20" t="n">
         <v>1.0417</v>
       </c>
-      <c r="L20" t="n">
+      <c r="J20" t="n">
         <v>4.25</v>
       </c>
     </row>
@@ -3480,17 +3669,230 @@
           <t>WalmartMX</t>
         </is>
       </c>
+      <c r="C21" t="n">
+        <v>1.0833</v>
+      </c>
       <c r="D21" t="n">
-        <v>1.0833</v>
-      </c>
-      <c r="E21" t="n">
         <v>1.9583</v>
       </c>
-      <c r="G21" t="n">
+      <c r="F21" t="n">
         <v>1.6667</v>
       </c>
-      <c r="L21" t="n">
+      <c r="J21" t="n">
         <v>1.6667</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="7" customWidth="1" min="1" max="1"/>
+    <col width="21" customWidth="1" min="2" max="2"/>
+    <col width="9" customWidth="1" min="3" max="3"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>SN</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Frequency</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Days</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Ad hoc</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Adhoc</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>BiWeekly</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Daily</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Daily (Weekdays)</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Periodic</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Quarterly</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>SemiAnnual</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Weekly</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Weekly (Sunday)</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Yearly</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
